--- a/data/pca/factorExposure/factorExposure_2011-06-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-06-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -704,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,39 +747,63 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>0.02073149664307688</v>
+        <v>0.01839158267770079</v>
       </c>
       <c r="C2">
-        <v>0.005202811895345081</v>
+        <v>-0.001735385724770647</v>
       </c>
       <c r="D2">
-        <v>0.05041158899912393</v>
+        <v>0.006295201164648652</v>
       </c>
       <c r="E2">
-        <v>-0.02631227204148011</v>
+        <v>0.0403075893597614</v>
       </c>
       <c r="F2">
-        <v>-0.04257198031755496</v>
+        <v>0.001814709588859422</v>
       </c>
       <c r="G2">
-        <v>-0.01844961233127112</v>
+        <v>0.02799328172033577</v>
       </c>
       <c r="H2">
-        <v>0.03095438869632925</v>
+        <v>0.01320783136419936</v>
       </c>
       <c r="I2">
-        <v>0.06335567275061767</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>-0.04720101712021824</v>
+      </c>
+      <c r="J2">
+        <v>0.009205524502511175</v>
+      </c>
+      <c r="K2">
+        <v>0.0411015822685547</v>
+      </c>
+      <c r="L2">
+        <v>0.0502365781292208</v>
+      </c>
+      <c r="M2">
+        <v>-0.007395493548468478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -793,39 +829,63 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>0.07167539797010641</v>
+        <v>0.1047666861983043</v>
       </c>
       <c r="C4">
-        <v>-0.05692890709804579</v>
+        <v>0.07883694767550384</v>
       </c>
       <c r="D4">
-        <v>0.0327827731188308</v>
+        <v>0.02645626670959098</v>
       </c>
       <c r="E4">
-        <v>-0.04328075042179245</v>
+        <v>0.04407402726941973</v>
       </c>
       <c r="F4">
-        <v>0.009273905501741174</v>
+        <v>0.1102766431528385</v>
       </c>
       <c r="G4">
-        <v>-0.02037106291884282</v>
+        <v>-0.01128177984302248</v>
       </c>
       <c r="H4">
-        <v>-0.007042264707127606</v>
+        <v>-0.05519172510073177</v>
       </c>
       <c r="I4">
-        <v>-0.004212821231697753</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.02884555691621988</v>
+      </c>
+      <c r="J4">
+        <v>-0.07233162025799005</v>
+      </c>
+      <c r="K4">
+        <v>0.00486349915840893</v>
+      </c>
+      <c r="L4">
+        <v>-0.07111058426250497</v>
+      </c>
+      <c r="M4">
+        <v>-0.02678002838190664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -851,329 +911,473 @@
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0.1337712618296228</v>
+        <v>0.1303970108043647</v>
       </c>
       <c r="C6">
-        <v>-0.03985234066638994</v>
+        <v>0.0562516488626747</v>
       </c>
       <c r="D6">
-        <v>0.07016508019218315</v>
+        <v>0.008532673530386427</v>
       </c>
       <c r="E6">
-        <v>-0.1053912131061211</v>
+        <v>0.02375674655794787</v>
       </c>
       <c r="F6">
-        <v>0.07240269201663076</v>
+        <v>0.04426275992080352</v>
       </c>
       <c r="G6">
-        <v>0.07382098956378697</v>
+        <v>-0.1839445038476956</v>
       </c>
       <c r="H6">
-        <v>-0.2890603835180642</v>
+        <v>0.09420160234472226</v>
       </c>
       <c r="I6">
-        <v>0.04720498901012434</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.106437502266746</v>
+      </c>
+      <c r="J6">
+        <v>-0.3800070403846969</v>
+      </c>
+      <c r="K6">
+        <v>-0.1591732445519908</v>
+      </c>
+      <c r="L6">
+        <v>0.09669288850870036</v>
+      </c>
+      <c r="M6">
+        <v>-0.01257509962429483</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>0.06681202806774045</v>
+        <v>0.07129059730220466</v>
       </c>
       <c r="C7">
-        <v>-0.04929354742439706</v>
+        <v>0.07382316124239199</v>
       </c>
       <c r="D7">
-        <v>0.05419355642549424</v>
+        <v>0.007669521494333034</v>
       </c>
       <c r="E7">
-        <v>-0.04218119451465539</v>
+        <v>0.04551623217629562</v>
       </c>
       <c r="F7">
-        <v>0.0311793247637634</v>
+        <v>0.01855388274017189</v>
       </c>
       <c r="G7">
-        <v>0.00622657228171739</v>
+        <v>0.008416760909081073</v>
       </c>
       <c r="H7">
-        <v>0.01462948413314146</v>
+        <v>-0.05111820836447557</v>
       </c>
       <c r="I7">
-        <v>-0.07168955740703271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.03238030846520819</v>
+      </c>
+      <c r="J7">
+        <v>0.0237618596553392</v>
+      </c>
+      <c r="K7">
+        <v>0.01664170514283531</v>
+      </c>
+      <c r="L7">
+        <v>-0.08751416910373197</v>
+      </c>
+      <c r="M7">
+        <v>0.0108875327529035</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>0.02837314667461621</v>
+        <v>0.03749593577530835</v>
       </c>
       <c r="C8">
-        <v>-0.01979549677607956</v>
+        <v>0.01187859906741092</v>
       </c>
       <c r="D8">
-        <v>0.03620593661235708</v>
+        <v>0.01971715360479476</v>
       </c>
       <c r="E8">
-        <v>-0.06126400816675122</v>
+        <v>0.04804026020108331</v>
       </c>
       <c r="F8">
-        <v>-0.04896001186127837</v>
+        <v>0.1014797639621513</v>
       </c>
       <c r="G8">
-        <v>0.03725201541103088</v>
+        <v>-0.00900588094022421</v>
       </c>
       <c r="H8">
-        <v>0.02265544796640598</v>
+        <v>-0.02506513843167027</v>
       </c>
       <c r="I8">
-        <v>-0.0397780011762747</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.005462885307607825</v>
+      </c>
+      <c r="J8">
+        <v>-0.0642951466359943</v>
+      </c>
+      <c r="K8">
+        <v>0.03034356210037949</v>
+      </c>
+      <c r="L8">
+        <v>-0.05625606052351154</v>
+      </c>
+      <c r="M8">
+        <v>-0.03939199977728931</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.07200987698659037</v>
+        <v>0.08417460702703308</v>
       </c>
       <c r="C9">
-        <v>-0.07276859761599512</v>
+        <v>0.06837226942397864</v>
       </c>
       <c r="D9">
-        <v>0.03639117542942091</v>
+        <v>0.005580964859429133</v>
       </c>
       <c r="E9">
-        <v>-0.03587427357797424</v>
+        <v>0.03076912531572735</v>
       </c>
       <c r="F9">
-        <v>-0.008128542686760097</v>
+        <v>0.1057760255678657</v>
       </c>
       <c r="G9">
-        <v>-0.02712902247841825</v>
+        <v>-0.003776421984523987</v>
       </c>
       <c r="H9">
-        <v>0.001984410601532296</v>
+        <v>-0.05556749880130515</v>
       </c>
       <c r="I9">
-        <v>-0.04867006724935728</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.03711484271903606</v>
+      </c>
+      <c r="J9">
+        <v>-0.03405274341559777</v>
+      </c>
+      <c r="K9">
+        <v>0.0074867097717228</v>
+      </c>
+      <c r="L9">
+        <v>-0.03514191264963475</v>
+      </c>
+      <c r="M9">
+        <v>0.0008944118684985501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0.0616389728370825</v>
+        <v>0.1097099612321454</v>
       </c>
       <c r="C10">
-        <v>0.1387560077473021</v>
+        <v>-0.1700120216710145</v>
       </c>
       <c r="D10">
-        <v>0.05820938953225126</v>
+        <v>0.01034417563043023</v>
       </c>
       <c r="E10">
-        <v>-0.03788090939017152</v>
+        <v>0.05222517060620133</v>
       </c>
       <c r="F10">
-        <v>0.03351023725908587</v>
+        <v>-0.01631386116091588</v>
       </c>
       <c r="G10">
-        <v>0.02184396411730499</v>
+        <v>-0.006936698278361541</v>
       </c>
       <c r="H10">
-        <v>-0.0407227953249511</v>
+        <v>-0.003150381291731231</v>
       </c>
       <c r="I10">
-        <v>-0.05283295256601208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.02574452896613601</v>
+      </c>
+      <c r="J10">
+        <v>0.07100405272555199</v>
+      </c>
+      <c r="K10">
+        <v>-0.01259964737298665</v>
+      </c>
+      <c r="L10">
+        <v>0.006877694122498561</v>
+      </c>
+      <c r="M10">
+        <v>0.07153695680481303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.06649668452116184</v>
+        <v>0.0672357181929935</v>
       </c>
       <c r="C11">
-        <v>-0.09024022862123268</v>
+        <v>0.07061108230589441</v>
       </c>
       <c r="D11">
-        <v>0.03425473000394508</v>
+        <v>-0.02938920408919197</v>
       </c>
       <c r="E11">
-        <v>-0.007048460854244908</v>
+        <v>0.01536853729158839</v>
       </c>
       <c r="F11">
-        <v>-0.05817748336334736</v>
+        <v>0.106762557519505</v>
       </c>
       <c r="G11">
-        <v>-0.01821528654926274</v>
+        <v>0.02309471900332176</v>
       </c>
       <c r="H11">
-        <v>0.05393645907996387</v>
+        <v>-0.0445160530100092</v>
       </c>
       <c r="I11">
-        <v>-0.08675235207629199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.03855557926937187</v>
+      </c>
+      <c r="J11">
+        <v>0.0689136504818282</v>
+      </c>
+      <c r="K11">
+        <v>0.0710466965480695</v>
+      </c>
+      <c r="L11">
+        <v>0.01509775410871071</v>
+      </c>
+      <c r="M11">
+        <v>0.07909634800786505</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.06120372858277009</v>
+        <v>0.07270838375526573</v>
       </c>
       <c r="C12">
-        <v>-0.05263137011981241</v>
+        <v>0.06364350870140879</v>
       </c>
       <c r="D12">
-        <v>0.01741081305736467</v>
+        <v>-0.02919025820052768</v>
       </c>
       <c r="E12">
-        <v>-0.02393887314094207</v>
+        <v>0.004971694414554679</v>
       </c>
       <c r="F12">
-        <v>-0.006413721687036036</v>
+        <v>0.1203202693093106</v>
       </c>
       <c r="G12">
-        <v>-0.008847716572039309</v>
+        <v>0.02778982117166793</v>
       </c>
       <c r="H12">
-        <v>0.04873048803561957</v>
+        <v>-0.02958102623397766</v>
       </c>
       <c r="I12">
-        <v>-0.1051263945189484</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.04940313385753559</v>
+      </c>
+      <c r="J12">
+        <v>0.03870189242667155</v>
+      </c>
+      <c r="K12">
+        <v>0.09326771571595381</v>
+      </c>
+      <c r="L12">
+        <v>-0.01524905095487848</v>
+      </c>
+      <c r="M12">
+        <v>0.1092088294091485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>0.050214021849655</v>
+        <v>0.04439609956625824</v>
       </c>
       <c r="C13">
-        <v>-0.01301541257641064</v>
+        <v>0.03164693475583782</v>
       </c>
       <c r="D13">
-        <v>0.0003860798424533183</v>
+        <v>0.02345101375616168</v>
       </c>
       <c r="E13">
-        <v>-0.01662077102151203</v>
+        <v>0.008450128646303252</v>
       </c>
       <c r="F13">
-        <v>-0.02239902370548138</v>
+        <v>0.04075742313515052</v>
       </c>
       <c r="G13">
-        <v>-0.05064967040756119</v>
+        <v>0.02188211649880223</v>
       </c>
       <c r="H13">
-        <v>0.01218769031487638</v>
+        <v>-0.03246368792145872</v>
       </c>
       <c r="I13">
-        <v>-0.06278196572750698</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.001332448659597031</v>
+      </c>
+      <c r="J13">
+        <v>-0.02346907046696001</v>
+      </c>
+      <c r="K13">
+        <v>0.007377981474966044</v>
+      </c>
+      <c r="L13">
+        <v>-0.0683830868005498</v>
+      </c>
+      <c r="M13">
+        <v>-0.02266203625428139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>0.04111563595900822</v>
+        <v>0.04450203618337913</v>
       </c>
       <c r="C14">
-        <v>-0.02491278351703904</v>
+        <v>0.02604751085279007</v>
       </c>
       <c r="D14">
-        <v>0.01864097703835225</v>
+        <v>-0.004889172868503251</v>
       </c>
       <c r="E14">
-        <v>0.009372290640823282</v>
+        <v>0.01885958728057452</v>
       </c>
       <c r="F14">
-        <v>0.01153389818747091</v>
+        <v>0.04522615348563992</v>
       </c>
       <c r="G14">
-        <v>-0.006157062331391664</v>
+        <v>0.02434214734403112</v>
       </c>
       <c r="H14">
-        <v>-0.08908003562721642</v>
+        <v>-0.06615518362264856</v>
       </c>
       <c r="I14">
-        <v>-0.05444102108689841</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.009564627221215373</v>
+      </c>
+      <c r="J14">
+        <v>-0.03388566424050116</v>
+      </c>
+      <c r="K14">
+        <v>-0.04463317905841357</v>
+      </c>
+      <c r="L14">
+        <v>-0.04368300770481532</v>
+      </c>
+      <c r="M14">
+        <v>-0.03654097066659485</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>0.03803710886896605</v>
+        <v>0.03064187072695311</v>
       </c>
       <c r="C15">
-        <v>0.009414397553776491</v>
+        <v>0.008210162687492056</v>
       </c>
       <c r="D15">
-        <v>-0.002296445065030202</v>
+        <v>0.06081929902549636</v>
       </c>
       <c r="E15">
-        <v>-0.02234718535269284</v>
+        <v>0.005670297119565995</v>
       </c>
       <c r="F15">
-        <v>0.01470156336318648</v>
+        <v>0.002651820405975026</v>
       </c>
       <c r="G15">
-        <v>-0.01468302070653514</v>
+        <v>-0.03640341714645042</v>
       </c>
       <c r="H15">
-        <v>-0.01494117137424026</v>
+        <v>-0.03691545347048465</v>
       </c>
       <c r="I15">
-        <v>-0.02638884531102642</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>-0.01892640579624144</v>
+      </c>
+      <c r="J15">
+        <v>-0.035183117102585</v>
+      </c>
+      <c r="K15">
+        <v>-0.03968884082344569</v>
+      </c>
+      <c r="L15">
+        <v>-0.05025694219845827</v>
+      </c>
+      <c r="M15">
+        <v>0.007759081052195371</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>0.05195210799961809</v>
+        <v>0.07150855474407708</v>
       </c>
       <c r="C16">
-        <v>-0.08562803230906724</v>
+        <v>0.07908803899031348</v>
       </c>
       <c r="D16">
-        <v>0.02827336902074964</v>
+        <v>-0.01947087427253943</v>
       </c>
       <c r="E16">
-        <v>-0.02722850495222656</v>
+        <v>0.01561106180971347</v>
       </c>
       <c r="F16">
-        <v>-0.03228398523636218</v>
+        <v>0.1082159761014348</v>
       </c>
       <c r="G16">
-        <v>-0.03432664746515614</v>
+        <v>0.03532772960046126</v>
       </c>
       <c r="H16">
-        <v>0.04555787626794724</v>
+        <v>-0.04328193670304115</v>
       </c>
       <c r="I16">
-        <v>-0.1248973103578618</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.05279121718231403</v>
+      </c>
+      <c r="J16">
+        <v>0.04356736998010124</v>
+      </c>
+      <c r="K16">
+        <v>0.08305462768641082</v>
+      </c>
+      <c r="L16">
+        <v>-0.01162320969350041</v>
+      </c>
+      <c r="M16">
+        <v>0.06234000531633754</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1199,10 +1403,22 @@
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1228,10 +1444,22 @@
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1257,213 +1485,309 @@
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>0.04097742294473929</v>
+        <v>0.04387021821992609</v>
       </c>
       <c r="C20">
-        <v>-0.0444629463013655</v>
+        <v>0.03178295674952822</v>
       </c>
       <c r="D20">
-        <v>0.01350807832744027</v>
+        <v>0.02549218479397593</v>
       </c>
       <c r="E20">
-        <v>-0.01176130582384075</v>
+        <v>0.01932236580021095</v>
       </c>
       <c r="F20">
-        <v>-0.008531367584074124</v>
+        <v>0.05650516364073913</v>
       </c>
       <c r="G20">
-        <v>-0.04245581909625823</v>
+        <v>0.02651949042115432</v>
       </c>
       <c r="H20">
-        <v>0.00496011422148767</v>
+        <v>-0.04020629516561055</v>
       </c>
       <c r="I20">
-        <v>-0.07701969076597706</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.05393891395060021</v>
+      </c>
+      <c r="J20">
+        <v>-0.03229266136126945</v>
+      </c>
+      <c r="K20">
+        <v>0.009682202465447081</v>
+      </c>
+      <c r="L20">
+        <v>-0.0600023331452155</v>
+      </c>
+      <c r="M20">
+        <v>0.01953271314664999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>0.01390231934876318</v>
+        <v>0.02932735670547669</v>
       </c>
       <c r="C21">
-        <v>-0.01800504788914521</v>
+        <v>0.02126751451905055</v>
       </c>
       <c r="D21">
-        <v>3.35065694065462e-05</v>
+        <v>0.01117194029411413</v>
       </c>
       <c r="E21">
-        <v>-0.07387570717240921</v>
+        <v>0.01866906391457053</v>
       </c>
       <c r="F21">
-        <v>0.04828886805774296</v>
+        <v>0.05777915032153844</v>
       </c>
       <c r="G21">
-        <v>0.09260168609942833</v>
+        <v>-0.0908411688627461</v>
       </c>
       <c r="H21">
-        <v>-0.0183869999340967</v>
+        <v>-0.008299531260764745</v>
       </c>
       <c r="I21">
-        <v>0.03212989754617596</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.06472004505088659</v>
+      </c>
+      <c r="J21">
+        <v>0.03473390936650544</v>
+      </c>
+      <c r="K21">
+        <v>-0.04465008179125361</v>
+      </c>
+      <c r="L21">
+        <v>-0.09855977591119226</v>
+      </c>
+      <c r="M21">
+        <v>-0.007715758853295337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>0.009146593793944632</v>
+        <v>0.03891703418732711</v>
       </c>
       <c r="C22">
-        <v>-0.05115649143931987</v>
+        <v>0.03013703404093255</v>
       </c>
       <c r="D22">
-        <v>-0.137888553439025</v>
+        <v>0.6532935988283178</v>
       </c>
       <c r="E22">
-        <v>-0.452767322057566</v>
+        <v>0.04779854684744755</v>
       </c>
       <c r="F22">
-        <v>0.2155576413987439</v>
+        <v>-0.08213438582694134</v>
       </c>
       <c r="G22">
-        <v>-0.2236454120427319</v>
+        <v>0.07209137283913108</v>
       </c>
       <c r="H22">
-        <v>0.2069356807759243</v>
+        <v>0.06886777013179723</v>
       </c>
       <c r="I22">
-        <v>0.24481472740094</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.09838315775295466</v>
+      </c>
+      <c r="J22">
+        <v>0.08711039575792678</v>
+      </c>
+      <c r="K22">
+        <v>-0.03591391013725273</v>
+      </c>
+      <c r="L22">
+        <v>0.03241041236519444</v>
+      </c>
+      <c r="M22">
+        <v>-0.0314314145360234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>0.01013317532299213</v>
+        <v>0.03962636064389326</v>
       </c>
       <c r="C23">
-        <v>-0.05014326492544417</v>
+        <v>0.03053544208271325</v>
       </c>
       <c r="D23">
-        <v>-0.1380245163350306</v>
+        <v>0.6549476397404473</v>
       </c>
       <c r="E23">
-        <v>-0.4540618461091401</v>
+        <v>0.04824653925125837</v>
       </c>
       <c r="F23">
-        <v>0.2131264120300972</v>
+        <v>-0.07754307853795389</v>
       </c>
       <c r="G23">
-        <v>-0.2200511273755193</v>
+        <v>0.07178814501411823</v>
       </c>
       <c r="H23">
-        <v>0.2047531987684285</v>
+        <v>0.07082830311086417</v>
       </c>
       <c r="I23">
-        <v>0.2444141982493995</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.09662238731161581</v>
+      </c>
+      <c r="J23">
+        <v>0.08357729660141824</v>
+      </c>
+      <c r="K23">
+        <v>-0.03726930454822101</v>
+      </c>
+      <c r="L23">
+        <v>0.03593850066135115</v>
+      </c>
+      <c r="M23">
+        <v>-0.03286658468717753</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>0.07136588524311202</v>
+        <v>0.07664741708140473</v>
       </c>
       <c r="C24">
-        <v>-0.08321726656646555</v>
+        <v>0.07620646704310415</v>
       </c>
       <c r="D24">
-        <v>0.03713049988016749</v>
+        <v>-0.01680302621037221</v>
       </c>
       <c r="E24">
-        <v>-0.03699053333042809</v>
+        <v>0.01797404092054844</v>
       </c>
       <c r="F24">
-        <v>-0.03605656628802344</v>
+        <v>0.1114437178494978</v>
       </c>
       <c r="G24">
-        <v>-0.01744008348489157</v>
+        <v>0.0221253754906159</v>
       </c>
       <c r="H24">
-        <v>0.03351139705297382</v>
+        <v>-0.03164225664759618</v>
       </c>
       <c r="I24">
-        <v>-0.09741098731661132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.04863365471421313</v>
+      </c>
+      <c r="J24">
+        <v>0.04221045880124472</v>
+      </c>
+      <c r="K24">
+        <v>0.07080552840703372</v>
+      </c>
+      <c r="L24">
+        <v>0.01755551645911053</v>
+      </c>
+      <c r="M24">
+        <v>0.07833972503447974</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>0.06530494709091397</v>
+        <v>0.07379855656890609</v>
       </c>
       <c r="C25">
-        <v>-0.04672453491633838</v>
+        <v>0.05019926432479134</v>
       </c>
       <c r="D25">
-        <v>0.03241286729634688</v>
+        <v>-0.03060101473569977</v>
       </c>
       <c r="E25">
-        <v>-0.04521578976053747</v>
+        <v>0.01525446074301559</v>
       </c>
       <c r="F25">
-        <v>-0.04434988788334036</v>
+        <v>0.1177703950630449</v>
       </c>
       <c r="G25">
-        <v>-0.03006911222887804</v>
+        <v>0.03973057878022151</v>
       </c>
       <c r="H25">
-        <v>0.002636047882442939</v>
+        <v>-0.04657354725565027</v>
       </c>
       <c r="I25">
-        <v>-0.0802490511262075</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.0518839798762191</v>
+      </c>
+      <c r="J25">
+        <v>0.03630852030647131</v>
+      </c>
+      <c r="K25">
+        <v>0.08192956831221089</v>
+      </c>
+      <c r="L25">
+        <v>0.03657095859859834</v>
+      </c>
+      <c r="M25">
+        <v>0.07876465662122273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>0.03860144426459925</v>
+        <v>0.04113800499625468</v>
       </c>
       <c r="C26">
-        <v>-0.03234264730688934</v>
+        <v>0.02218099431143693</v>
       </c>
       <c r="D26">
-        <v>0.03844902576238082</v>
+        <v>0.01198211628089242</v>
       </c>
       <c r="E26">
-        <v>0.003593836198146299</v>
+        <v>0.003288189828550548</v>
       </c>
       <c r="F26">
-        <v>0.0156277178054972</v>
+        <v>0.03665920056084945</v>
       </c>
       <c r="G26">
-        <v>-0.02786796874614118</v>
+        <v>0.008591624255317851</v>
       </c>
       <c r="H26">
-        <v>0.003500519588186721</v>
+        <v>-0.0415404757401827</v>
       </c>
       <c r="I26">
-        <v>-0.07539965602936588</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>0.02200398126123559</v>
+      </c>
+      <c r="J26">
+        <v>0.00614111669233699</v>
+      </c>
+      <c r="K26">
+        <v>-0.07786804761862755</v>
+      </c>
+      <c r="L26">
+        <v>-0.1374851190939116</v>
+      </c>
+      <c r="M26">
+        <v>-0.03024932598863193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1489,271 +1813,391 @@
       <c r="I27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>0.1225272067521234</v>
+        <v>0.146323242458286</v>
       </c>
       <c r="C28">
-        <v>0.2952823105685549</v>
+        <v>-0.2860964681347575</v>
       </c>
       <c r="D28">
-        <v>0.03686881251280698</v>
+        <v>-0.007256051983376499</v>
       </c>
       <c r="E28">
-        <v>0.006715963481894979</v>
+        <v>0.0298547638719586</v>
       </c>
       <c r="F28">
-        <v>0.04816732486849484</v>
+        <v>-0.004081173703010576</v>
       </c>
       <c r="G28">
-        <v>0.02415846711717505</v>
+        <v>-0.01260776233527922</v>
       </c>
       <c r="H28">
-        <v>0.04238745905668142</v>
+        <v>0.01530631558854345</v>
       </c>
       <c r="I28">
-        <v>-0.005439202098526733</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.01170894712734588</v>
+      </c>
+      <c r="J28">
+        <v>-0.005235578081113286</v>
+      </c>
+      <c r="K28">
+        <v>-0.0002509454438551498</v>
+      </c>
+      <c r="L28">
+        <v>-0.04213753340454977</v>
+      </c>
+      <c r="M28">
+        <v>-0.03410163975458252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>0.05234822327638129</v>
+        <v>0.04451959727723238</v>
       </c>
       <c r="C29">
-        <v>-0.02047752068254619</v>
+        <v>0.02331494617999303</v>
       </c>
       <c r="D29">
-        <v>0.009543462638377668</v>
+        <v>0.003383977329167506</v>
       </c>
       <c r="E29">
-        <v>-0.01777309650020789</v>
+        <v>0.01990411124577813</v>
       </c>
       <c r="F29">
-        <v>0.004820979546570911</v>
+        <v>0.0474588288643552</v>
       </c>
       <c r="G29">
-        <v>-0.01932237050611293</v>
+        <v>0.0388696542682392</v>
       </c>
       <c r="H29">
-        <v>-0.02854598654748592</v>
+        <v>-0.05095502121909729</v>
       </c>
       <c r="I29">
-        <v>-0.01123683082735909</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.01562774515321185</v>
+      </c>
+      <c r="J29">
+        <v>-0.01795402559235619</v>
+      </c>
+      <c r="K29">
+        <v>-0.0422388926010857</v>
+      </c>
+      <c r="L29">
+        <v>-0.03262141751566672</v>
+      </c>
+      <c r="M29">
+        <v>-0.02772493881678189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>0.1219449835130117</v>
+        <v>0.09791547577715701</v>
       </c>
       <c r="C30">
-        <v>-0.06582326512445966</v>
+        <v>0.06620819015721539</v>
       </c>
       <c r="D30">
-        <v>0.06431408698857881</v>
+        <v>0.003929752489369758</v>
       </c>
       <c r="E30">
-        <v>-0.07590806867557572</v>
+        <v>0.02782674264588852</v>
       </c>
       <c r="F30">
-        <v>0.01347783522452236</v>
+        <v>0.1785994518113157</v>
       </c>
       <c r="G30">
-        <v>0.01566623632257747</v>
+        <v>0.04591098157056889</v>
       </c>
       <c r="H30">
-        <v>0.02481933523780976</v>
+        <v>0.01603433447738642</v>
       </c>
       <c r="I30">
-        <v>-0.07448787200698129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.2977602094844126</v>
+      </c>
+      <c r="J30">
+        <v>-0.05505116425903178</v>
+      </c>
+      <c r="K30">
+        <v>0.02433144636175954</v>
+      </c>
+      <c r="L30">
+        <v>-0.172945685176968</v>
+      </c>
+      <c r="M30">
+        <v>-0.2041551551861086</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>0.0475560406273842</v>
+        <v>0.03489368750054313</v>
       </c>
       <c r="C31">
-        <v>-0.02403714260677398</v>
+        <v>0.0450195596846055</v>
       </c>
       <c r="D31">
-        <v>-0.005674704573036979</v>
+        <v>0.007434559015086263</v>
       </c>
       <c r="E31">
-        <v>0.01236207427561167</v>
+        <v>-0.008951072654171725</v>
       </c>
       <c r="F31">
-        <v>0.0237451527933557</v>
+        <v>0.01444268444584241</v>
       </c>
       <c r="G31">
-        <v>-0.04515815732818837</v>
+        <v>0.02961301697638447</v>
       </c>
       <c r="H31">
-        <v>8.958556806820096e-05</v>
+        <v>-0.04298244712710354</v>
       </c>
       <c r="I31">
-        <v>-0.01813035745349392</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>-0.01492114787827673</v>
+      </c>
+      <c r="J31">
+        <v>-0.02865100116097975</v>
+      </c>
+      <c r="K31">
+        <v>0.01205709662437427</v>
+      </c>
+      <c r="L31">
+        <v>-0.0176268258442537</v>
+      </c>
+      <c r="M31">
+        <v>-0.005962592329374316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>0.01712609271930581</v>
+        <v>0.04505240808937151</v>
       </c>
       <c r="C32">
-        <v>0.009225661867685385</v>
+        <v>-0.003062013375642081</v>
       </c>
       <c r="D32">
-        <v>-0.02985261706441574</v>
+        <v>-0.003023345671862041</v>
       </c>
       <c r="E32">
-        <v>-0.08524886600609997</v>
+        <v>0.00168584435212688</v>
       </c>
       <c r="F32">
-        <v>-0.04082360084551995</v>
+        <v>0.07429980417453998</v>
       </c>
       <c r="G32">
-        <v>-0.02198954780447302</v>
+        <v>-0.03167140803261254</v>
       </c>
       <c r="H32">
-        <v>0.05159295744740404</v>
+        <v>-0.04433630862675961</v>
       </c>
       <c r="I32">
-        <v>-0.05115682377838121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>-0.06915822160137289</v>
+      </c>
+      <c r="J32">
+        <v>0.01055551310954137</v>
+      </c>
+      <c r="K32">
+        <v>0.01214877121743381</v>
+      </c>
+      <c r="L32">
+        <v>-0.04647652923726935</v>
+      </c>
+      <c r="M32">
+        <v>-0.1308869881516192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>0.1003591516930547</v>
+        <v>0.09812585371446782</v>
       </c>
       <c r="C33">
-        <v>-0.05728340238340009</v>
+        <v>0.06719732681846331</v>
       </c>
       <c r="D33">
-        <v>-0.000326245329356971</v>
+        <v>-0.00735269920534955</v>
       </c>
       <c r="E33">
-        <v>-0.003141291420278991</v>
+        <v>-0.01751312437057593</v>
       </c>
       <c r="F33">
-        <v>-0.01866662376844112</v>
+        <v>0.06548137856329038</v>
       </c>
       <c r="G33">
-        <v>-0.05267728553292087</v>
+        <v>0.03230738909845545</v>
       </c>
       <c r="H33">
-        <v>0.01916476657883043</v>
+        <v>-0.05206358776757508</v>
       </c>
       <c r="I33">
-        <v>-0.0524375958820995</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.03563897302197763</v>
+      </c>
+      <c r="J33">
+        <v>-0.01200407621206681</v>
+      </c>
+      <c r="K33">
+        <v>-0.03568250714588744</v>
+      </c>
+      <c r="L33">
+        <v>-0.009703545989553437</v>
+      </c>
+      <c r="M33">
+        <v>0.00778827330250123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>0.05318273573187383</v>
+        <v>0.06325562743458747</v>
       </c>
       <c r="C34">
-        <v>-0.08335231451998891</v>
+        <v>0.06345193817939</v>
       </c>
       <c r="D34">
-        <v>0.02042130909877817</v>
+        <v>-0.0255378818109184</v>
       </c>
       <c r="E34">
-        <v>-0.03817778376227839</v>
+        <v>0.01186709114043558</v>
       </c>
       <c r="F34">
-        <v>-0.02465581474527078</v>
+        <v>0.09872857794654877</v>
       </c>
       <c r="G34">
-        <v>-0.01599333845965529</v>
+        <v>0.02493841104990265</v>
       </c>
       <c r="H34">
-        <v>0.02989337504884931</v>
+        <v>-0.05115320384434115</v>
       </c>
       <c r="I34">
-        <v>-0.09496614036575984</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.03566727429078446</v>
+      </c>
+      <c r="J34">
+        <v>0.02849447097889112</v>
+      </c>
+      <c r="K34">
+        <v>0.05767593377377026</v>
+      </c>
+      <c r="L34">
+        <v>0.007713534796636893</v>
+      </c>
+      <c r="M34">
+        <v>0.1021302176782237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>0.04180248511199494</v>
+        <v>0.02593827394751357</v>
       </c>
       <c r="C35">
-        <v>-0.0388566734403211</v>
+        <v>0.02454349422719788</v>
       </c>
       <c r="D35">
-        <v>0.009231072286546153</v>
+        <v>0.002307668498849564</v>
       </c>
       <c r="E35">
-        <v>-0.00756456158651705</v>
+        <v>-0.001987237064983789</v>
       </c>
       <c r="F35">
-        <v>-0.005009787507672931</v>
+        <v>0.01862648081343532</v>
       </c>
       <c r="G35">
-        <v>-0.02987471424376073</v>
+        <v>0.02488634402861548</v>
       </c>
       <c r="H35">
-        <v>0.006699664049457945</v>
+        <v>-0.03873367238270083</v>
       </c>
       <c r="I35">
-        <v>-0.05710867193460453</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.04890475948330995</v>
+      </c>
+      <c r="J35">
+        <v>0.02143608633950863</v>
+      </c>
+      <c r="K35">
+        <v>0.0173566987551757</v>
+      </c>
+      <c r="L35">
+        <v>-0.05551175759226951</v>
+      </c>
+      <c r="M35">
+        <v>-0.01739940643152398</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>0.02877245611614017</v>
+        <v>0.02905359756999235</v>
       </c>
       <c r="C36">
-        <v>-0.02115801277732028</v>
+        <v>0.02078273962361488</v>
       </c>
       <c r="D36">
-        <v>0.02602764745667319</v>
+        <v>0.01483657083712761</v>
       </c>
       <c r="E36">
-        <v>-0.01746630724921299</v>
+        <v>0.01410883286445225</v>
       </c>
       <c r="F36">
-        <v>-0.006355552368250385</v>
+        <v>0.06249052166528124</v>
       </c>
       <c r="G36">
-        <v>-0.03644198162612065</v>
+        <v>0.01455229096861985</v>
       </c>
       <c r="H36">
-        <v>-0.02125538514631359</v>
+        <v>-0.04252977603112075</v>
       </c>
       <c r="I36">
-        <v>-0.07855895843193834</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.03756567698896021</v>
+      </c>
+      <c r="J36">
+        <v>-0.02517259653634381</v>
+      </c>
+      <c r="K36">
+        <v>-0.01981532245350164</v>
+      </c>
+      <c r="L36">
+        <v>-0.04111595592636622</v>
+      </c>
+      <c r="M36">
+        <v>0.02295428516826256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1779,126 +2223,186 @@
       <c r="I37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>0.04166293715213728</v>
+        <v>0.03071362457151212</v>
       </c>
       <c r="C38">
-        <v>-0.02998397954267218</v>
+        <v>0.04804202556589603</v>
       </c>
       <c r="D38">
-        <v>-0.02242316237129764</v>
+        <v>0.02373843324818621</v>
       </c>
       <c r="E38">
-        <v>-0.03708908788528815</v>
+        <v>0.002049456751635683</v>
       </c>
       <c r="F38">
-        <v>-0.006901834669995236</v>
+        <v>-0.04548644522441539</v>
       </c>
       <c r="G38">
-        <v>-0.01099331988713409</v>
+        <v>0.04960124156654021</v>
       </c>
       <c r="H38">
-        <v>0.04386374189820112</v>
+        <v>0.03957435828558026</v>
       </c>
       <c r="I38">
-        <v>-0.03884390818616505</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>-0.001877257598975776</v>
+      </c>
+      <c r="J38">
+        <v>0.05888414725594514</v>
+      </c>
+      <c r="K38">
+        <v>-0.1074494363863289</v>
+      </c>
+      <c r="L38">
+        <v>-0.06150074851946759</v>
+      </c>
+      <c r="M38">
+        <v>-0.1060261506242232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>0.09407086185697165</v>
+        <v>0.09990540767324688</v>
       </c>
       <c r="C39">
-        <v>-0.1004714564642738</v>
+        <v>0.09121750799729619</v>
       </c>
       <c r="D39">
-        <v>0.01505594968028286</v>
+        <v>-0.08284403653251676</v>
       </c>
       <c r="E39">
-        <v>-0.03136663424426375</v>
+        <v>-0.01416016715957027</v>
       </c>
       <c r="F39">
-        <v>-0.04783725465601056</v>
+        <v>0.1531144752761859</v>
       </c>
       <c r="G39">
-        <v>0.01351244850688953</v>
+        <v>0.09567479631270645</v>
       </c>
       <c r="H39">
-        <v>0.1017236202989029</v>
+        <v>0.006118675224271593</v>
       </c>
       <c r="I39">
-        <v>-0.1592275915734409</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.1280784996059705</v>
+      </c>
+      <c r="J39">
+        <v>0.0913203253581964</v>
+      </c>
+      <c r="K39">
+        <v>0.1896148117381287</v>
+      </c>
+      <c r="L39">
+        <v>-0.02594126818073309</v>
+      </c>
+      <c r="M39">
+        <v>-0.06217954309400717</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>0.05474756887879113</v>
+        <v>0.03408844780851094</v>
       </c>
       <c r="C40">
-        <v>-0.04997635432548689</v>
+        <v>0.05792423535601247</v>
       </c>
       <c r="D40">
-        <v>-0.04938883012763678</v>
+        <v>0.05170523292840849</v>
       </c>
       <c r="E40">
-        <v>-0.1371834862646871</v>
+        <v>-0.00523370695292916</v>
       </c>
       <c r="F40">
-        <v>-0.03128545696865321</v>
+        <v>0.1221947862006713</v>
       </c>
       <c r="G40">
-        <v>-0.04852000114101953</v>
+        <v>-0.06116663652360779</v>
       </c>
       <c r="H40">
-        <v>0.1151621888228805</v>
+        <v>-0.02562778763857827</v>
       </c>
       <c r="I40">
-        <v>-0.2400767151071493</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>0.01468799725006555</v>
+      </c>
+      <c r="J40">
+        <v>0.1004538615978676</v>
+      </c>
+      <c r="K40">
+        <v>-0.07032688007053627</v>
+      </c>
+      <c r="L40">
+        <v>-0.08674368094805812</v>
+      </c>
+      <c r="M40">
+        <v>-0.008615793136001051</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>0.04512213364959053</v>
+        <v>0.03540636059112821</v>
       </c>
       <c r="C41">
-        <v>-0.05448424913003438</v>
+        <v>0.03679663401950006</v>
       </c>
       <c r="D41">
-        <v>0.0114967316646052</v>
+        <v>-0.01839443812695726</v>
       </c>
       <c r="E41">
-        <v>0.004945289274992664</v>
+        <v>-0.001227012398265649</v>
       </c>
       <c r="F41">
-        <v>-0.01627077494151682</v>
+        <v>0.01771272712941994</v>
       </c>
       <c r="G41">
-        <v>-0.02486907578261063</v>
+        <v>0.02919609848213449</v>
       </c>
       <c r="H41">
-        <v>0.02569191315530376</v>
+        <v>-0.009384367808329958</v>
       </c>
       <c r="I41">
-        <v>-0.06189942422657441</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>-0.005823721477098572</v>
+      </c>
+      <c r="J41">
+        <v>0.01293916414604184</v>
+      </c>
+      <c r="K41">
+        <v>-0.01038645347184801</v>
+      </c>
+      <c r="L41">
+        <v>-0.04458681477666674</v>
+      </c>
+      <c r="M41">
+        <v>0.02894366984200573</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1924,68 +2428,104 @@
       <c r="I42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>0.05550918994217169</v>
+        <v>0.04957479007820902</v>
       </c>
       <c r="C43">
-        <v>-0.04363492457369654</v>
+        <v>0.04664237265222281</v>
       </c>
       <c r="D43">
-        <v>0.02745849179452163</v>
+        <v>0.01308068995026554</v>
       </c>
       <c r="E43">
-        <v>-0.01827985569655245</v>
+        <v>0.01275654951240814</v>
       </c>
       <c r="F43">
-        <v>0.01356517120028228</v>
+        <v>0.01387222480505695</v>
       </c>
       <c r="G43">
-        <v>-0.02594487278264275</v>
+        <v>0.06335857628862726</v>
       </c>
       <c r="H43">
-        <v>0.0222429381967466</v>
+        <v>-0.0003465805504826651</v>
       </c>
       <c r="I43">
-        <v>-0.03402509366297836</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.001166699484149615</v>
+      </c>
+      <c r="J43">
+        <v>0.008963799174073521</v>
+      </c>
+      <c r="K43">
+        <v>0.01161701485166791</v>
+      </c>
+      <c r="L43">
+        <v>-0.03014919349187352</v>
+      </c>
+      <c r="M43">
+        <v>0.01184639432938051</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>0.05093771510873538</v>
+        <v>0.08384923240140837</v>
       </c>
       <c r="C44">
-        <v>-0.01595286873443709</v>
+        <v>0.0606292425834639</v>
       </c>
       <c r="D44">
-        <v>0.06871290268365682</v>
+        <v>0.07021529022164712</v>
       </c>
       <c r="E44">
-        <v>-0.1349047941696789</v>
+        <v>0.09577471747237976</v>
       </c>
       <c r="F44">
-        <v>-0.0483107683703758</v>
+        <v>0.1583303195023014</v>
       </c>
       <c r="G44">
-        <v>-0.01514990812628763</v>
+        <v>0.01237521841802612</v>
       </c>
       <c r="H44">
-        <v>0.02036334965093765</v>
+        <v>-0.07597860332712339</v>
       </c>
       <c r="I44">
-        <v>-0.133041764233983</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.04799179149584483</v>
+      </c>
+      <c r="J44">
+        <v>0.04992368332055537</v>
+      </c>
+      <c r="K44">
+        <v>0.002727290301344955</v>
+      </c>
+      <c r="L44">
+        <v>-0.04926315056244146</v>
+      </c>
+      <c r="M44">
+        <v>-0.04763043512891347</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2011,329 +2551,473 @@
       <c r="I45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>0.02055411593889219</v>
+        <v>0.03423742189178509</v>
       </c>
       <c r="C46">
-        <v>-0.04456181736599637</v>
+        <v>0.03846532218709391</v>
       </c>
       <c r="D46">
-        <v>0.01263577154403601</v>
+        <v>0.04883767487142076</v>
       </c>
       <c r="E46">
-        <v>-0.0441765010584615</v>
+        <v>0.03608584521659065</v>
       </c>
       <c r="F46">
-        <v>-0.003365977963146456</v>
+        <v>0.02281988640856675</v>
       </c>
       <c r="G46">
-        <v>-0.007967223463908001</v>
+        <v>-0.006361457613214288</v>
       </c>
       <c r="H46">
-        <v>0.006789872960995978</v>
+        <v>-0.06628972172742911</v>
       </c>
       <c r="I46">
-        <v>-0.04298461521757178</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.006014561321133699</v>
+      </c>
+      <c r="J46">
+        <v>-0.02095266439033162</v>
+      </c>
+      <c r="K46">
+        <v>-0.0623519063052386</v>
+      </c>
+      <c r="L46">
+        <v>-0.06367348795842818</v>
+      </c>
+      <c r="M46">
+        <v>0.001577791065890671</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>0.02633582473041213</v>
+        <v>0.04610522661732704</v>
       </c>
       <c r="C47">
-        <v>-4.25386574975422e-05</v>
+        <v>0.02748304637527981</v>
       </c>
       <c r="D47">
-        <v>-0.01645122502451695</v>
+        <v>0.02203681832892749</v>
       </c>
       <c r="E47">
-        <v>-0.0638777274797603</v>
+        <v>0.006471118947121764</v>
       </c>
       <c r="F47">
-        <v>0.002209741335241755</v>
+        <v>0.03287523406232293</v>
       </c>
       <c r="G47">
-        <v>-0.04031444746217185</v>
+        <v>0.02771442043446695</v>
       </c>
       <c r="H47">
-        <v>-0.03079634583196593</v>
+        <v>-0.02627284225899795</v>
       </c>
       <c r="I47">
-        <v>-0.02662348796040252</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.03788522551864055</v>
+      </c>
+      <c r="J47">
+        <v>-0.007226331224194844</v>
+      </c>
+      <c r="K47">
+        <v>-0.03633409440435854</v>
+      </c>
+      <c r="L47">
+        <v>-0.01567638078717505</v>
+      </c>
+      <c r="M47">
+        <v>0.02984797434662603</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>0.03094581265360272</v>
+        <v>0.04209329088119018</v>
       </c>
       <c r="C48">
-        <v>-0.02622593298390843</v>
+        <v>0.02082374355337616</v>
       </c>
       <c r="D48">
-        <v>0.004501335581919309</v>
+        <v>0.01480671784910863</v>
       </c>
       <c r="E48">
-        <v>-0.0407512936531397</v>
+        <v>0.002317244125755562</v>
       </c>
       <c r="F48">
-        <v>0.01297170286186447</v>
+        <v>0.06659597549537122</v>
       </c>
       <c r="G48">
-        <v>-0.05213914421061739</v>
+        <v>-0.02116253570147102</v>
       </c>
       <c r="H48">
-        <v>0.008840576228291748</v>
+        <v>-0.05391464504517245</v>
       </c>
       <c r="I48">
-        <v>-0.04846497929664167</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.03746783852016809</v>
+      </c>
+      <c r="J48">
+        <v>-0.02054969042759071</v>
+      </c>
+      <c r="K48">
+        <v>0.01491539943071736</v>
+      </c>
+      <c r="L48">
+        <v>-0.04843644441563153</v>
+      </c>
+      <c r="M48">
+        <v>0.02043639446410669</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>0.1935927724656243</v>
+        <v>0.2240236415151883</v>
       </c>
       <c r="C49">
-        <v>-0.1219635009544418</v>
+        <v>0.08434479385400961</v>
       </c>
       <c r="D49">
-        <v>0.08145537287769734</v>
+        <v>-0.06197970468499266</v>
       </c>
       <c r="E49">
-        <v>0.06373521390674955</v>
+        <v>0.02879043907571826</v>
       </c>
       <c r="F49">
-        <v>0.1171378776632072</v>
+        <v>-0.2311083120988978</v>
       </c>
       <c r="G49">
-        <v>0.1609044244048273</v>
+        <v>-0.1435870239605121</v>
       </c>
       <c r="H49">
-        <v>-0.006148635242589851</v>
+        <v>0.02575406518113877</v>
       </c>
       <c r="I49">
-        <v>-0.001712770599047416</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.08788865234996593</v>
+      </c>
+      <c r="J49">
+        <v>0.1633963262390071</v>
+      </c>
+      <c r="K49">
+        <v>0.06933712819242313</v>
+      </c>
+      <c r="L49">
+        <v>0.1540003713256961</v>
+      </c>
+      <c r="M49">
+        <v>0.1036612102616987</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>0.05452349804741535</v>
+        <v>0.04244815019050045</v>
       </c>
       <c r="C50">
-        <v>-0.03002036663242112</v>
+        <v>0.04163678588169131</v>
       </c>
       <c r="D50">
-        <v>0.003226785644280435</v>
+        <v>0.004515606520220467</v>
       </c>
       <c r="E50">
-        <v>-0.01470087250536243</v>
+        <v>-0.009415456647335401</v>
       </c>
       <c r="F50">
-        <v>0.004779429583900623</v>
+        <v>0.04015746172658069</v>
       </c>
       <c r="G50">
-        <v>-0.07012941978487017</v>
+        <v>0.03834104799433749</v>
       </c>
       <c r="H50">
-        <v>-0.03261533360473002</v>
+        <v>-0.03544208421028376</v>
       </c>
       <c r="I50">
-        <v>0.0007892574866839129</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>0.007881724284027183</v>
+      </c>
+      <c r="J50">
+        <v>-0.04443907538745336</v>
+      </c>
+      <c r="K50">
+        <v>-0.03407520890256438</v>
+      </c>
+      <c r="L50">
+        <v>-0.02293091333107615</v>
+      </c>
+      <c r="M50">
+        <v>-0.0344000152163742</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>0.02623066317874589</v>
+        <v>0.02989423700202448</v>
       </c>
       <c r="C51">
-        <v>-0.01911499479434032</v>
+        <v>0.00589130622626637</v>
       </c>
       <c r="D51">
-        <v>-0.00771910131497585</v>
+        <v>-0.0005938655406805705</v>
       </c>
       <c r="E51">
-        <v>-0.008413680351495903</v>
+        <v>0.01725094326774565</v>
       </c>
       <c r="F51">
-        <v>-0.007955786635279689</v>
+        <v>-0.01924951289255196</v>
       </c>
       <c r="G51">
-        <v>0.02631621348929835</v>
+        <v>0.005423137503126061</v>
       </c>
       <c r="H51">
-        <v>0.01200719263171749</v>
+        <v>0.02137432499351547</v>
       </c>
       <c r="I51">
-        <v>0.004795932414134216</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.004759785360467704</v>
+      </c>
+      <c r="J51">
+        <v>0.03410903486677575</v>
+      </c>
+      <c r="K51">
+        <v>0.05559329369699109</v>
+      </c>
+      <c r="L51">
+        <v>0.0628711528133253</v>
+      </c>
+      <c r="M51">
+        <v>-0.0007843041425043922</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.01447762807002648</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.004299634723741052</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.01653809393553575</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.005302266510624582</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.00362699080053506</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.002532444409403139</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>0.008827453921685274</v>
       </c>
       <c r="I52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>0.003501490328190309</v>
+      </c>
+      <c r="J52">
+        <v>-0.001188318151028553</v>
+      </c>
+      <c r="K52">
+        <v>0.01752312282383609</v>
+      </c>
+      <c r="L52">
+        <v>-0.005913012262314134</v>
+      </c>
+      <c r="M52">
+        <v>-0.03724123588275297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>0.1674039358211749</v>
+        <v>0.1539290805767239</v>
       </c>
       <c r="C53">
-        <v>-0.01830858311299693</v>
+        <v>0.04646720437404583</v>
       </c>
       <c r="D53">
-        <v>0.02109502088803967</v>
+        <v>-0.01503676617694512</v>
       </c>
       <c r="E53">
-        <v>0.08005438456058725</v>
+        <v>-0.008667441833180146</v>
       </c>
       <c r="F53">
-        <v>-0.1728387512456882</v>
+        <v>-0.06906890251320526</v>
       </c>
       <c r="G53">
-        <v>-0.1996960544349498</v>
+        <v>0.2111614916899249</v>
       </c>
       <c r="H53">
-        <v>-0.006709640964775493</v>
+        <v>-0.0321678369207274</v>
       </c>
       <c r="I53">
-        <v>0.07807336789932538</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>-0.1088508951541815</v>
+      </c>
+      <c r="J53">
+        <v>-0.05590502425012239</v>
+      </c>
+      <c r="K53">
+        <v>-0.09951561475801127</v>
+      </c>
+      <c r="L53">
+        <v>0.06396485442994421</v>
+      </c>
+      <c r="M53">
+        <v>-0.09645501439140922</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>0.04829975441765617</v>
+        <v>0.05935004573015502</v>
       </c>
       <c r="C54">
-        <v>-0.03007625740269918</v>
+        <v>0.03270571032837261</v>
       </c>
       <c r="D54">
-        <v>0.03168919702093652</v>
+        <v>0.02333581026757169</v>
       </c>
       <c r="E54">
-        <v>-0.03996312780673267</v>
+        <v>0.02624249571054732</v>
       </c>
       <c r="F54">
-        <v>-0.01010572587308225</v>
+        <v>0.1040577581927097</v>
       </c>
       <c r="G54">
-        <v>-0.03418364943466365</v>
+        <v>-0.01654834990910013</v>
       </c>
       <c r="H54">
-        <v>0.003094256087239709</v>
+        <v>-0.05278119266474134</v>
       </c>
       <c r="I54">
-        <v>-0.05743252584927954</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>-0.0117590566094596</v>
+      </c>
+      <c r="J54">
+        <v>-0.07106465023473267</v>
+      </c>
+      <c r="K54">
+        <v>-0.03949522939757352</v>
+      </c>
+      <c r="L54">
+        <v>-0.1072625801859492</v>
+      </c>
+      <c r="M54">
+        <v>0.01086298831934565</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>0.0897989632632166</v>
+        <v>0.08583377893600996</v>
       </c>
       <c r="C55">
-        <v>-0.002718685946505278</v>
+        <v>0.03642152603068591</v>
       </c>
       <c r="D55">
-        <v>0.01454626854747844</v>
+        <v>-0.02615138765157939</v>
       </c>
       <c r="E55">
-        <v>0.0125166751599051</v>
+        <v>0.00324229124526424</v>
       </c>
       <c r="F55">
-        <v>-0.1453325465343753</v>
+        <v>0.0062680037344979</v>
       </c>
       <c r="G55">
-        <v>-0.1803105432168643</v>
+        <v>0.1433023202243642</v>
       </c>
       <c r="H55">
-        <v>-0.02634693518039214</v>
+        <v>-0.04131800118535974</v>
       </c>
       <c r="I55">
-        <v>0.05981736912002199</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>-0.0722292717845457</v>
+      </c>
+      <c r="J55">
+        <v>-0.04018603350222405</v>
+      </c>
+      <c r="K55">
+        <v>-0.06420989717919669</v>
+      </c>
+      <c r="L55">
+        <v>0.04909027383218149</v>
+      </c>
+      <c r="M55">
+        <v>-0.02994324513364424</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>0.165429816541369</v>
+        <v>0.1495806685373959</v>
       </c>
       <c r="C56">
-        <v>-0.02010395580251716</v>
+        <v>0.0691869283095194</v>
       </c>
       <c r="D56">
-        <v>0.04099090679963954</v>
+        <v>-0.03258009990059132</v>
       </c>
       <c r="E56">
-        <v>0.07602268980948794</v>
+        <v>0.008348046325516006</v>
       </c>
       <c r="F56">
-        <v>-0.141068702572416</v>
+        <v>-0.03481660070867464</v>
       </c>
       <c r="G56">
-        <v>-0.1887567282550249</v>
+        <v>0.2084163359545339</v>
       </c>
       <c r="H56">
-        <v>-0.007083945293487021</v>
+        <v>-0.01197185984467057</v>
       </c>
       <c r="I56">
-        <v>0.1242199356153435</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>-0.1271102396926186</v>
+      </c>
+      <c r="J56">
+        <v>-0.03316342420164604</v>
+      </c>
+      <c r="K56">
+        <v>-0.103925721495803</v>
+      </c>
+      <c r="L56">
+        <v>0.04894682712025566</v>
+      </c>
+      <c r="M56">
+        <v>-0.05087810364538961</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2359,1112 +3043,1580 @@
       <c r="I57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>0.03981172917339793</v>
+        <v>0.03741745038060008</v>
       </c>
       <c r="C58">
-        <v>-0.04083271698570765</v>
+        <v>0.03349042378673919</v>
       </c>
       <c r="D58">
-        <v>0.006492665468786733</v>
+        <v>0.08589415876987713</v>
       </c>
       <c r="E58">
-        <v>-0.3199897355949564</v>
+        <v>0.0236781307188356</v>
       </c>
       <c r="F58">
-        <v>0.2216980525784887</v>
+        <v>0.03339324466357636</v>
       </c>
       <c r="G58">
-        <v>-0.0287423112118764</v>
+        <v>-0.05008350327397081</v>
       </c>
       <c r="H58">
-        <v>-0.1658243500148713</v>
+        <v>-0.03466609008844133</v>
       </c>
       <c r="I58">
-        <v>-0.2612598200781731</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>0.2541650279056227</v>
+      </c>
+      <c r="J58">
+        <v>-0.1102424079342057</v>
+      </c>
+      <c r="K58">
+        <v>0.3227695941758697</v>
+      </c>
+      <c r="L58">
+        <v>-0.0127107046840867</v>
+      </c>
+      <c r="M58">
+        <v>0.1423629561223758</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>0.2474875039277301</v>
+        <v>0.2294785255484745</v>
       </c>
       <c r="C59">
-        <v>0.4010772790831116</v>
+        <v>-0.2994805222300231</v>
       </c>
       <c r="D59">
-        <v>0.02596433283327535</v>
+        <v>-0.03964298606646563</v>
       </c>
       <c r="E59">
-        <v>-0.02572770971469894</v>
+        <v>0.004210975776158797</v>
       </c>
       <c r="F59">
-        <v>-0.06426457624051694</v>
+        <v>0.02358355062009494</v>
       </c>
       <c r="G59">
-        <v>-0.000590963949466983</v>
+        <v>0.05826550106910364</v>
       </c>
       <c r="H59">
-        <v>0.08566143894684283</v>
+        <v>0.02645204096204598</v>
       </c>
       <c r="I59">
-        <v>-0.02039996381042434</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>-0.1301471910639986</v>
+      </c>
+      <c r="J59">
+        <v>0.03314733662924484</v>
+      </c>
+      <c r="K59">
+        <v>0.04446215163555563</v>
+      </c>
+      <c r="L59">
+        <v>0.03036231383698069</v>
+      </c>
+      <c r="M59">
+        <v>-0.01070032794610257</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>0.2517530430664754</v>
+        <v>0.2448038642630831</v>
       </c>
       <c r="C60">
-        <v>-0.07809317384202008</v>
+        <v>0.1204126634315594</v>
       </c>
       <c r="D60">
-        <v>0.09779575277390586</v>
+        <v>-0.06522374407464629</v>
       </c>
       <c r="E60">
-        <v>-0.02229461542454203</v>
+        <v>0.04760765002027664</v>
       </c>
       <c r="F60">
-        <v>0.0408463332022228</v>
+        <v>-0.09458504440761895</v>
       </c>
       <c r="G60">
-        <v>0.06436836212763132</v>
+        <v>-0.05079377860213369</v>
       </c>
       <c r="H60">
-        <v>-0.0580972095185101</v>
+        <v>0.1003501581332818</v>
       </c>
       <c r="I60">
-        <v>0.223481780524054</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>0.02443753317411917</v>
+      </c>
+      <c r="J60">
+        <v>-0.04944870311485434</v>
+      </c>
+      <c r="K60">
+        <v>-0.03512844382992415</v>
+      </c>
+      <c r="L60">
+        <v>0.208287487657464</v>
+      </c>
+      <c r="M60">
+        <v>-0.01395368102241923</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>0.08328118979068158</v>
+        <v>0.09172795746689719</v>
       </c>
       <c r="C61">
-        <v>-0.06571579365195106</v>
+        <v>0.0650080060563655</v>
       </c>
       <c r="D61">
-        <v>0.01651083812400961</v>
+        <v>-0.04305972914874662</v>
       </c>
       <c r="E61">
-        <v>-0.00205227731298762</v>
+        <v>0.01213098998026081</v>
       </c>
       <c r="F61">
-        <v>-0.01479076485641829</v>
+        <v>0.1161012835747314</v>
       </c>
       <c r="G61">
-        <v>-0.01663469859066726</v>
+        <v>0.08610086952993526</v>
       </c>
       <c r="H61">
-        <v>0.056181001047978</v>
+        <v>-0.02275138797107336</v>
       </c>
       <c r="I61">
-        <v>-0.06700477227561785</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>0.04573504820169003</v>
+      </c>
+      <c r="J61">
+        <v>0.05068459788638872</v>
+      </c>
+      <c r="K61">
+        <v>0.07071367999277585</v>
+      </c>
+      <c r="L61">
+        <v>-0.04347735997111466</v>
+      </c>
+      <c r="M61">
+        <v>-0.02345382749889919</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>0.1641407753287796</v>
+        <v>0.1409795181281249</v>
       </c>
       <c r="C62">
-        <v>-0.05877743314842377</v>
+        <v>0.07462279945587266</v>
       </c>
       <c r="D62">
-        <v>0.006674014726596772</v>
+        <v>-0.03218491394616363</v>
       </c>
       <c r="E62">
-        <v>0.1177516254966322</v>
+        <v>-0.03618248783806008</v>
       </c>
       <c r="F62">
-        <v>-0.1976263574722135</v>
+        <v>-0.03143194218270692</v>
       </c>
       <c r="G62">
-        <v>-0.1432125952834371</v>
+        <v>0.1575436381494565</v>
       </c>
       <c r="H62">
-        <v>0.02039370781317858</v>
+        <v>-0.05323083873461801</v>
       </c>
       <c r="I62">
-        <v>0.05600313557633892</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>-0.1229322937251486</v>
+      </c>
+      <c r="J62">
+        <v>-0.03713642257749544</v>
+      </c>
+      <c r="K62">
+        <v>-0.1640017012745269</v>
+      </c>
+      <c r="L62">
+        <v>0.02702183242714707</v>
+      </c>
+      <c r="M62">
+        <v>-5.01925204664443e-05</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>0.04370378953651854</v>
+        <v>0.0448373114585931</v>
       </c>
       <c r="C63">
-        <v>-0.03753497708271408</v>
+        <v>0.02637968236192482</v>
       </c>
       <c r="D63">
-        <v>0.01456689502737961</v>
+        <v>-0.005298099058069595</v>
       </c>
       <c r="E63">
-        <v>-0.008897308719757245</v>
+        <v>-0.01211773831609484</v>
       </c>
       <c r="F63">
-        <v>-0.01617049937899264</v>
+        <v>0.05953113505974009</v>
       </c>
       <c r="G63">
-        <v>-0.03213888027336041</v>
+        <v>0.00825581713503387</v>
       </c>
       <c r="H63">
-        <v>-0.0539376789908074</v>
+        <v>-0.02806813708773518</v>
       </c>
       <c r="I63">
-        <v>-0.06167376887646325</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>0.04343211188473824</v>
+      </c>
+      <c r="J63">
+        <v>-0.03051915748570955</v>
+      </c>
+      <c r="K63">
+        <v>-0.006567024172333483</v>
+      </c>
+      <c r="L63">
+        <v>-0.01744382280757686</v>
+      </c>
+      <c r="M63">
+        <v>-0.0005682555439719666</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>0.1021881607796277</v>
+        <v>0.1011515198541708</v>
       </c>
       <c r="C64">
-        <v>-0.02746541393761876</v>
+        <v>0.0484035346185441</v>
       </c>
       <c r="D64">
-        <v>0.03750993791423273</v>
+        <v>0.007496782424804749</v>
       </c>
       <c r="E64">
-        <v>-0.04076806482073781</v>
+        <v>0.03938746974884057</v>
       </c>
       <c r="F64">
-        <v>0.009686474108489629</v>
+        <v>0.06330488601088748</v>
       </c>
       <c r="G64">
-        <v>0.007633493885985622</v>
+        <v>0.01742510273102034</v>
       </c>
       <c r="H64">
-        <v>0.02639393892667471</v>
+        <v>0.003363384613915237</v>
       </c>
       <c r="I64">
-        <v>-0.05871925508572486</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.08170542965420195</v>
+      </c>
+      <c r="J64">
+        <v>0.002238064055577363</v>
+      </c>
+      <c r="K64">
+        <v>0.01607274098048795</v>
+      </c>
+      <c r="L64">
+        <v>-0.03686839405370988</v>
+      </c>
+      <c r="M64">
+        <v>-0.01025746473734102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>0.1292678450778468</v>
+        <v>0.1255008807126173</v>
       </c>
       <c r="C65">
-        <v>-0.05684001008088188</v>
+        <v>0.04843467482341419</v>
       </c>
       <c r="D65">
-        <v>0.05559658778600231</v>
+        <v>-0.002829411231483338</v>
       </c>
       <c r="E65">
-        <v>-0.1411709326249551</v>
+        <v>3.245905742346767e-05</v>
       </c>
       <c r="F65">
-        <v>0.1217844568572176</v>
+        <v>0.04697179393628283</v>
       </c>
       <c r="G65">
-        <v>0.0405040491229509</v>
+        <v>-0.2197701181593073</v>
       </c>
       <c r="H65">
-        <v>-0.6613778008167958</v>
+        <v>0.1154104714895552</v>
       </c>
       <c r="I65">
-        <v>0.05891981264492391</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.2213957075267442</v>
+      </c>
+      <c r="J65">
+        <v>-0.5512046323012415</v>
+      </c>
+      <c r="K65">
+        <v>-0.2606744279629768</v>
+      </c>
+      <c r="L65">
+        <v>0.1990944467016819</v>
+      </c>
+      <c r="M65">
+        <v>-0.0778413188513728</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>0.1525787949561364</v>
+        <v>0.1279180344888448</v>
       </c>
       <c r="C66">
-        <v>-0.1458452795587324</v>
+        <v>0.133653196324803</v>
       </c>
       <c r="D66">
-        <v>0.03413275388358433</v>
+        <v>-0.1051379245466406</v>
       </c>
       <c r="E66">
-        <v>0.008473388212394501</v>
+        <v>-0.02636549620845203</v>
       </c>
       <c r="F66">
-        <v>-0.100140075780286</v>
+        <v>0.1671053018402591</v>
       </c>
       <c r="G66">
-        <v>0.03480669093469266</v>
+        <v>0.1019297088610511</v>
       </c>
       <c r="H66">
-        <v>0.2043310510568501</v>
+        <v>-0.008457456166913737</v>
       </c>
       <c r="I66">
-        <v>-0.3287320841690957</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>0.109900116016276</v>
+      </c>
+      <c r="J66">
+        <v>0.1592063389864406</v>
+      </c>
+      <c r="K66">
+        <v>0.1763477888685143</v>
+      </c>
+      <c r="L66">
+        <v>-0.02191428308308073</v>
+      </c>
+      <c r="M66">
+        <v>-0.09048872594034935</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>0.07854332787075549</v>
+        <v>0.08035118996584251</v>
       </c>
       <c r="C67">
-        <v>-0.05117412061539833</v>
+        <v>0.06186829059276387</v>
       </c>
       <c r="D67">
-        <v>0.004640060462585088</v>
+        <v>0.017377368245752</v>
       </c>
       <c r="E67">
-        <v>-0.006479056289101068</v>
+        <v>0.01547173268171262</v>
       </c>
       <c r="F67">
-        <v>-0.002638487919093638</v>
+        <v>-0.04049350537001323</v>
       </c>
       <c r="G67">
-        <v>0.006884250252351422</v>
+        <v>0.08789516574772573</v>
       </c>
       <c r="H67">
-        <v>0.05809786628392207</v>
+        <v>0.0828360505820397</v>
       </c>
       <c r="I67">
-        <v>-0.03431737520092191</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>-0.02955731823361875</v>
+      </c>
+      <c r="J67">
+        <v>0.09142352442822439</v>
+      </c>
+      <c r="K67">
+        <v>-0.07203604882525265</v>
+      </c>
+      <c r="L67">
+        <v>-0.02649838776541105</v>
+      </c>
+      <c r="M67">
+        <v>-0.06721034465448732</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>0.1025211357904672</v>
+        <v>0.1217477980751459</v>
       </c>
       <c r="C68">
-        <v>0.2739979610626305</v>
+        <v>-0.2756643693422928</v>
       </c>
       <c r="D68">
-        <v>-0.005233438157606472</v>
+        <v>-0.002325117343133946</v>
       </c>
       <c r="E68">
-        <v>-0.00805969033493506</v>
+        <v>0.003338103825252196</v>
       </c>
       <c r="F68">
-        <v>0.006079379950088028</v>
+        <v>0.02301599187981394</v>
       </c>
       <c r="G68">
-        <v>-0.05133630044167305</v>
+        <v>0.02869130566447216</v>
       </c>
       <c r="H68">
-        <v>-0.01414202875401034</v>
+        <v>-0.01292147667607144</v>
       </c>
       <c r="I68">
-        <v>0.001840286918064531</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.03972044359035051</v>
+      </c>
+      <c r="J68">
+        <v>-0.05555447688816775</v>
+      </c>
+      <c r="K68">
+        <v>-0.01445882544006817</v>
+      </c>
+      <c r="L68">
+        <v>-0.005356604434531185</v>
+      </c>
+      <c r="M68">
+        <v>-0.04107376766836045</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>0.03929815079603914</v>
+        <v>0.0430361098677783</v>
       </c>
       <c r="C69">
-        <v>-0.029267966052649</v>
+        <v>0.02265525556072752</v>
       </c>
       <c r="D69">
-        <v>0.004574856254007378</v>
+        <v>0.009520953501650596</v>
       </c>
       <c r="E69">
-        <v>-0.01356184138243027</v>
+        <v>-0.00396416942071761</v>
       </c>
       <c r="F69">
-        <v>-0.04057773154367795</v>
+        <v>0.01634326607907079</v>
       </c>
       <c r="G69">
-        <v>-0.01400658557408581</v>
+        <v>0.03976319866734574</v>
       </c>
       <c r="H69">
-        <v>-0.001546356417976829</v>
+        <v>0.001394437775909407</v>
       </c>
       <c r="I69">
-        <v>-0.01064826482469231</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.004514084312477933</v>
+      </c>
+      <c r="J69">
+        <v>0.018145357815061</v>
+      </c>
+      <c r="K69">
+        <v>-0.02410438065819889</v>
+      </c>
+      <c r="L69">
+        <v>0.001514685732378151</v>
+      </c>
+      <c r="M69">
+        <v>0.06570620919166871</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>0.04654529895068168</v>
+        <v>0.05119503658792765</v>
       </c>
       <c r="C70">
-        <v>-0.005714127950955735</v>
+        <v>0.03497724882126337</v>
       </c>
       <c r="D70">
-        <v>0.03375697344478738</v>
+        <v>-0.01989882008019236</v>
       </c>
       <c r="E70">
-        <v>0.02761040031415241</v>
+        <v>0.01305915063149126</v>
       </c>
       <c r="F70">
-        <v>0.09557029195783466</v>
+        <v>-0.005670262889851018</v>
       </c>
       <c r="G70">
-        <v>0.06486036597526842</v>
+        <v>-0.06750310218495451</v>
       </c>
       <c r="H70">
-        <v>0.03351431735965236</v>
+        <v>-0.008949544770987241</v>
       </c>
       <c r="I70">
-        <v>-0.03937431913548201</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>-0.03006720685233982</v>
+      </c>
+      <c r="J70">
+        <v>-0.02872826276881702</v>
+      </c>
+      <c r="K70">
+        <v>-0.1463510169686889</v>
+      </c>
+      <c r="L70">
+        <v>-0.2738058040942167</v>
+      </c>
+      <c r="M70">
+        <v>0.1842951304075003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>0.1059297756738736</v>
+        <v>0.1368074487016514</v>
       </c>
       <c r="C71">
-        <v>0.2811838576664245</v>
+        <v>-0.2823813545001613</v>
       </c>
       <c r="D71">
-        <v>0.02517912022253617</v>
+        <v>-0.008349518935310636</v>
       </c>
       <c r="E71">
-        <v>0.003995360931835078</v>
+        <v>0.02209115126738213</v>
       </c>
       <c r="F71">
-        <v>0.02487743118080007</v>
+        <v>0.02749553855696741</v>
       </c>
       <c r="G71">
-        <v>-0.03126955132818842</v>
+        <v>0.03207293936593747</v>
       </c>
       <c r="H71">
-        <v>0.004755851078844395</v>
+        <v>-0.008554040183992367</v>
       </c>
       <c r="I71">
-        <v>-0.03974523103522514</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>0.04396725626753244</v>
+      </c>
+      <c r="J71">
+        <v>-0.01246140092428742</v>
+      </c>
+      <c r="K71">
+        <v>-0.002958730634349706</v>
+      </c>
+      <c r="L71">
+        <v>-0.001022798031983842</v>
+      </c>
+      <c r="M71">
+        <v>-0.02095770250013955</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>0.184857531713833</v>
+        <v>0.1433368198272233</v>
       </c>
       <c r="C72">
-        <v>-0.05007865204865104</v>
+        <v>0.03368055935235498</v>
       </c>
       <c r="D72">
-        <v>-0.2370635638770152</v>
+        <v>0.004368510655502656</v>
       </c>
       <c r="E72">
-        <v>0.02108230125662964</v>
+        <v>-0.1857288131527293</v>
       </c>
       <c r="F72">
-        <v>-0.08605884416613868</v>
+        <v>0.05146745245650413</v>
       </c>
       <c r="G72">
-        <v>0.06204622687084509</v>
+        <v>0.001249784227944619</v>
       </c>
       <c r="H72">
-        <v>-0.130401605715842</v>
+        <v>0.06417970032724238</v>
       </c>
       <c r="I72">
-        <v>-0.01806684111783721</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>-0.02044909719334545</v>
+      </c>
+      <c r="J72">
+        <v>-0.0745149282276374</v>
+      </c>
+      <c r="K72">
+        <v>-0.09590087625406155</v>
+      </c>
+      <c r="L72">
+        <v>0.1094041858103097</v>
+      </c>
+      <c r="M72">
+        <v>-0.01332203246246841</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>0.2711811583538527</v>
+        <v>0.2414298397920975</v>
       </c>
       <c r="C73">
-        <v>-0.1929627805165863</v>
+        <v>0.1558736248159264</v>
       </c>
       <c r="D73">
-        <v>0.1345970436179699</v>
+        <v>-0.1608003679383328</v>
       </c>
       <c r="E73">
-        <v>0.05093038523537016</v>
+        <v>0.1007913715870902</v>
       </c>
       <c r="F73">
-        <v>0.175402750121312</v>
+        <v>-0.4138363316790423</v>
       </c>
       <c r="G73">
-        <v>0.08061451050764204</v>
+        <v>-0.1115822165922912</v>
       </c>
       <c r="H73">
-        <v>-0.1592577236551918</v>
+        <v>0.2029354916288184</v>
       </c>
       <c r="I73">
-        <v>0.185621740056213</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>0.2680057674217812</v>
+      </c>
+      <c r="J73">
+        <v>0.2589777399595634</v>
+      </c>
+      <c r="K73">
+        <v>0.146166789230912</v>
+      </c>
+      <c r="L73">
+        <v>0.300925037422525</v>
+      </c>
+      <c r="M73">
+        <v>-0.1300388840816574</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>0.09620221442416123</v>
+        <v>0.09116517330458519</v>
       </c>
       <c r="C74">
-        <v>-0.03557644296363005</v>
+        <v>0.06984213402379758</v>
       </c>
       <c r="D74">
-        <v>0.01386962366525193</v>
+        <v>-0.01240314139666033</v>
       </c>
       <c r="E74">
-        <v>0.03005908998930572</v>
+        <v>-0.01114317376501413</v>
       </c>
       <c r="F74">
-        <v>-0.06689816425268295</v>
+        <v>-0.03642972046085662</v>
       </c>
       <c r="G74">
-        <v>-0.1619961546395624</v>
+        <v>0.153290881248447</v>
       </c>
       <c r="H74">
-        <v>-0.04753155835413048</v>
+        <v>-0.01847529509362441</v>
       </c>
       <c r="I74">
-        <v>0.01561745055112921</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>-0.001536680893877494</v>
+      </c>
+      <c r="J74">
+        <v>0.005937224981330693</v>
+      </c>
+      <c r="K74">
+        <v>-0.05092195156214396</v>
+      </c>
+      <c r="L74">
+        <v>0.03652213670638453</v>
+      </c>
+      <c r="M74">
+        <v>-0.03469231365276933</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>0.09549872431623599</v>
+        <v>0.09074511869683625</v>
       </c>
       <c r="C75">
-        <v>-0.02081567066483653</v>
+        <v>0.05016675150709991</v>
       </c>
       <c r="D75">
-        <v>0.01270577157200338</v>
+        <v>-0.005741937556619543</v>
       </c>
       <c r="E75">
-        <v>0.030685186267394</v>
+        <v>-0.01460198276589649</v>
       </c>
       <c r="F75">
-        <v>-0.0755578967697951</v>
+        <v>-0.01653853118069276</v>
       </c>
       <c r="G75">
-        <v>-0.08431072345421303</v>
+        <v>0.09820986740961896</v>
       </c>
       <c r="H75">
-        <v>0.01069250921750511</v>
+        <v>-0.01613297153448435</v>
       </c>
       <c r="I75">
-        <v>0.1025136851785658</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>-0.09027427953711525</v>
+      </c>
+      <c r="J75">
+        <v>-0.02948620983474294</v>
+      </c>
+      <c r="K75">
+        <v>-0.03369649122652363</v>
+      </c>
+      <c r="L75">
+        <v>0.02602041773125548</v>
+      </c>
+      <c r="M75">
+        <v>0.05616326079436137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>0.1287259719856405</v>
+        <v>0.09290145673252799</v>
       </c>
       <c r="C76">
-        <v>-0.03436697040294139</v>
+        <v>0.06524288590065891</v>
       </c>
       <c r="D76">
-        <v>0.01148274849919757</v>
+        <v>-0.001841983808669527</v>
       </c>
       <c r="E76">
-        <v>0.0146012835359411</v>
+        <v>0.00610144564090028</v>
       </c>
       <c r="F76">
-        <v>-0.1433697486258595</v>
+        <v>-0.05246477480024211</v>
       </c>
       <c r="G76">
-        <v>-0.1884532316577369</v>
+        <v>0.191447518886001</v>
       </c>
       <c r="H76">
-        <v>-0.02481507514170397</v>
+        <v>-0.03860100008188178</v>
       </c>
       <c r="I76">
-        <v>0.1599549812539741</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>-0.1110621485622151</v>
+      </c>
+      <c r="J76">
+        <v>-0.04797709821971307</v>
+      </c>
+      <c r="K76">
+        <v>-0.06895005646516637</v>
+      </c>
+      <c r="L76">
+        <v>0.04138198703517704</v>
+      </c>
+      <c r="M76">
+        <v>-0.09905086765091789</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>0.0895085692590762</v>
+        <v>0.07529962615931665</v>
       </c>
       <c r="C77">
-        <v>-0.01390606470580763</v>
+        <v>0.01855195342704432</v>
       </c>
       <c r="D77">
-        <v>0.003832528174845245</v>
+        <v>-0.005091440904924654</v>
       </c>
       <c r="E77">
-        <v>-0.3698316301409242</v>
+        <v>0.04864035370060284</v>
       </c>
       <c r="F77">
-        <v>-0.5178188227594871</v>
+        <v>0.4464365329718998</v>
       </c>
       <c r="G77">
-        <v>0.5992638395666104</v>
+        <v>-0.1938340722149773</v>
       </c>
       <c r="H77">
-        <v>0.06516140862257998</v>
+        <v>0.6567439663337481</v>
       </c>
       <c r="I77">
-        <v>0.2541347664437879</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>-0.2654660151057968</v>
+      </c>
+      <c r="J77">
+        <v>0.2416964732889165</v>
+      </c>
+      <c r="K77">
+        <v>-0.132152025645227</v>
+      </c>
+      <c r="L77">
+        <v>0.06035838819529031</v>
+      </c>
+      <c r="M77">
+        <v>-0.05172558509062671</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>0.1377972905508106</v>
+        <v>0.1659450338679121</v>
       </c>
       <c r="C78">
-        <v>-0.0793006118244144</v>
+        <v>0.1232395521514515</v>
       </c>
       <c r="D78">
-        <v>0.02185779453714398</v>
+        <v>0.1814225510211968</v>
       </c>
       <c r="E78">
-        <v>-0.1651647835617874</v>
+        <v>0.09937588102834076</v>
       </c>
       <c r="F78">
-        <v>0.05753329790187682</v>
+        <v>0.105770395376258</v>
       </c>
       <c r="G78">
-        <v>-0.01331761773211411</v>
+        <v>-0.274448542754905</v>
       </c>
       <c r="H78">
-        <v>0.102480233722785</v>
+        <v>-0.2072179691692453</v>
       </c>
       <c r="I78">
-        <v>-0.06824542812795302</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>-0.5277489880785816</v>
+      </c>
+      <c r="J78">
+        <v>-0.2333388270538488</v>
+      </c>
+      <c r="K78">
+        <v>0.5073577335414451</v>
+      </c>
+      <c r="L78">
+        <v>0.2071901891276572</v>
+      </c>
+      <c r="M78">
+        <v>-0.08463284877833599</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>0.139747557072232</v>
+        <v>0.1339243698515642</v>
       </c>
       <c r="C79">
-        <v>-0.05438327379708919</v>
+        <v>0.07339685269458318</v>
       </c>
       <c r="D79">
-        <v>0.02132590043472153</v>
+        <v>-0.004395693587168954</v>
       </c>
       <c r="E79">
-        <v>0.04932122979554496</v>
+        <v>0.001024623055143597</v>
       </c>
       <c r="F79">
-        <v>-0.1150355456225418</v>
+        <v>-0.0003108857209118207</v>
       </c>
       <c r="G79">
-        <v>-0.1187538888948289</v>
+        <v>0.1510497674072961</v>
       </c>
       <c r="H79">
-        <v>0.01441939444169096</v>
+        <v>-0.02818678127652644</v>
       </c>
       <c r="I79">
-        <v>0.06454345501266739</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>-0.076081631436592</v>
+      </c>
+      <c r="J79">
+        <v>-0.02379798251594471</v>
+      </c>
+      <c r="K79">
+        <v>-0.1107558105257736</v>
+      </c>
+      <c r="L79">
+        <v>0.0375320897724126</v>
+      </c>
+      <c r="M79">
+        <v>0.01036206872608039</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>0.02573735535238744</v>
+        <v>0.05451077623574216</v>
       </c>
       <c r="C80">
-        <v>0.006599589491023028</v>
+        <v>0.02293732679334013</v>
       </c>
       <c r="D80">
-        <v>0.006726160717833894</v>
+        <v>-0.06165149106914558</v>
       </c>
       <c r="E80">
-        <v>0.02603787798546086</v>
+        <v>0.007346335777420472</v>
       </c>
       <c r="F80">
-        <v>-0.003665879215339934</v>
+        <v>0.004846948134433701</v>
       </c>
       <c r="G80">
-        <v>0.002838139954284144</v>
+        <v>-0.01744079866161003</v>
       </c>
       <c r="H80">
-        <v>-0.0814830720803401</v>
+        <v>-0.08028976135229191</v>
       </c>
       <c r="I80">
-        <v>-0.1027161262650527</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>0.1073259370363532</v>
+      </c>
+      <c r="J80">
+        <v>-0.07063311895756597</v>
+      </c>
+      <c r="K80">
+        <v>0.03833109424775575</v>
+      </c>
+      <c r="L80">
+        <v>-0.06854695614259022</v>
+      </c>
+      <c r="M80">
+        <v>-0.04731387836334481</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>0.1134542034673184</v>
+        <v>0.1205070559671859</v>
       </c>
       <c r="C81">
-        <v>-0.05152387470537429</v>
+        <v>0.05247333471927752</v>
       </c>
       <c r="D81">
-        <v>0.03042324415075799</v>
+        <v>-0.0001002759812510301</v>
       </c>
       <c r="E81">
-        <v>0.0397319020114859</v>
+        <v>0.003564087892883564</v>
       </c>
       <c r="F81">
-        <v>-0.06862593715850884</v>
+        <v>0.01247380428007413</v>
       </c>
       <c r="G81">
-        <v>-0.08117401974270383</v>
+        <v>0.1378410366305159</v>
       </c>
       <c r="H81">
-        <v>0.002647207630128398</v>
+        <v>-0.05606120415718638</v>
       </c>
       <c r="I81">
-        <v>0.07742804628860268</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>-0.06145485994765574</v>
+      </c>
+      <c r="J81">
+        <v>0.01122786279046369</v>
+      </c>
+      <c r="K81">
+        <v>-0.04865559831318106</v>
+      </c>
+      <c r="L81">
+        <v>0.02622531330229468</v>
+      </c>
+      <c r="M81">
+        <v>0.07777202140847364</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>0.1077064581939191</v>
+        <v>0.1180546362196778</v>
       </c>
       <c r="C82">
-        <v>-0.0309819798412082</v>
+        <v>0.05161971316948</v>
       </c>
       <c r="D82">
-        <v>0.05178050584140089</v>
+        <v>-0.02705364935579703</v>
       </c>
       <c r="E82">
-        <v>0.0891172428910716</v>
+        <v>-0.008107302075447281</v>
       </c>
       <c r="F82">
-        <v>-0.1781247488131481</v>
+        <v>-0.03653098620102276</v>
       </c>
       <c r="G82">
-        <v>-0.1963087306750661</v>
+        <v>0.229992595606862</v>
       </c>
       <c r="H82">
-        <v>0.0361962001191383</v>
+        <v>-0.05341814787292091</v>
       </c>
       <c r="I82">
-        <v>0.02827971976850324</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>-0.09612006717684773</v>
+      </c>
+      <c r="J82">
+        <v>0.02667348363813985</v>
+      </c>
+      <c r="K82">
+        <v>-0.08800574487854082</v>
+      </c>
+      <c r="L82">
+        <v>-0.05147547428616095</v>
+      </c>
+      <c r="M82">
+        <v>0.01327345203878658</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>0.05827328896632576</v>
+        <v>0.07773333334410353</v>
       </c>
       <c r="C83">
-        <v>-0.04200586300772525</v>
+        <v>0.06523789626502569</v>
       </c>
       <c r="D83">
-        <v>0.03092801127962272</v>
+        <v>-0.01137839517806379</v>
       </c>
       <c r="E83">
-        <v>0.016245860332375</v>
+        <v>0.002988755917720195</v>
       </c>
       <c r="F83">
-        <v>0.03489325975397752</v>
+        <v>-0.003213077304097463</v>
       </c>
       <c r="G83">
-        <v>0.06207424766496078</v>
+        <v>0.0412081232512201</v>
       </c>
       <c r="H83">
-        <v>0.08072434077463858</v>
+        <v>0.03417220142841802</v>
       </c>
       <c r="I83">
-        <v>-0.1108085441411162</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>0.06512432024530029</v>
+      </c>
+      <c r="J83">
+        <v>0.02650140363169821</v>
+      </c>
+      <c r="K83">
+        <v>0.03513103599882071</v>
+      </c>
+      <c r="L83">
+        <v>-0.1549088251217702</v>
+      </c>
+      <c r="M83">
+        <v>-0.04578790302770869</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>0.04665685008090857</v>
+        <v>0.04820083863300132</v>
       </c>
       <c r="C84">
-        <v>-0.03897555090179446</v>
+        <v>-0.02034306931824021</v>
       </c>
       <c r="D84">
-        <v>-0.04926353419652551</v>
+        <v>-0.007389971865769803</v>
       </c>
       <c r="E84">
-        <v>0.02684689972680504</v>
+        <v>-0.01838888960044364</v>
       </c>
       <c r="F84">
-        <v>0.07223555363223193</v>
+        <v>0.0007980119967468716</v>
       </c>
       <c r="G84">
-        <v>-0.1008518693311973</v>
+        <v>-0.2000665090382804</v>
       </c>
       <c r="H84">
-        <v>0.01210959825143611</v>
+        <v>-0.2032163592880563</v>
       </c>
       <c r="I84">
-        <v>-0.02405059867565246</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>0.06139502296654809</v>
+      </c>
+      <c r="J84">
+        <v>0.1277514054613145</v>
+      </c>
+      <c r="K84">
+        <v>0.01448033480788086</v>
+      </c>
+      <c r="L84">
+        <v>-0.1420686825421916</v>
+      </c>
+      <c r="M84">
+        <v>-0.6497959412572928</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>0.08265680197471978</v>
+        <v>0.1075411731496477</v>
       </c>
       <c r="C85">
-        <v>-0.04757554996359548</v>
+        <v>0.05173194027810162</v>
       </c>
       <c r="D85">
-        <v>0.04982548390258736</v>
+        <v>-0.01263867261577498</v>
       </c>
       <c r="E85">
-        <v>0.02017230637122604</v>
+        <v>0.02924341449021441</v>
       </c>
       <c r="F85">
-        <v>-0.1380784510002804</v>
+        <v>0.002705705663001114</v>
       </c>
       <c r="G85">
-        <v>-0.1317728555955303</v>
+        <v>0.1609401668271386</v>
       </c>
       <c r="H85">
-        <v>-0.03177720295441637</v>
+        <v>-0.03602374953336222</v>
       </c>
       <c r="I85">
-        <v>0.04665695446796123</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>-0.0754903398074933</v>
+      </c>
+      <c r="J85">
+        <v>-0.02457838353257637</v>
+      </c>
+      <c r="K85">
+        <v>-0.1047280931926223</v>
+      </c>
+      <c r="L85">
+        <v>0.06413813500547848</v>
+      </c>
+      <c r="M85">
+        <v>0.02795138022871968</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>0.03525276231658617</v>
+        <v>0.0732332142733623</v>
       </c>
       <c r="C86">
-        <v>-0.05180065113309819</v>
+        <v>0.02368918219140869</v>
       </c>
       <c r="D86">
-        <v>-0.01438191708803161</v>
+        <v>0.008815322338015448</v>
       </c>
       <c r="E86">
-        <v>-0.03278746191272357</v>
+        <v>0.09318636559601129</v>
       </c>
       <c r="F86">
-        <v>0.006627712479504157</v>
+        <v>0.05101473998973111</v>
       </c>
       <c r="G86">
-        <v>0.06140925759771227</v>
+        <v>-0.4057857882315773</v>
       </c>
       <c r="H86">
-        <v>-0.1463764312837327</v>
+        <v>-0.4798832036051345</v>
       </c>
       <c r="I86">
-        <v>-0.2167630889733452</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>-0.0915579747656431</v>
+      </c>
+      <c r="J86">
+        <v>0.3554412816423242</v>
+      </c>
+      <c r="K86">
+        <v>-0.4299089376393504</v>
+      </c>
+      <c r="L86">
+        <v>0.174277365151352</v>
+      </c>
+      <c r="M86">
+        <v>0.0229616815555502</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>0.08751967594300558</v>
+        <v>0.1136789375368234</v>
       </c>
       <c r="C87">
-        <v>-0.06342998458159232</v>
+        <v>0.06605937735107889</v>
       </c>
       <c r="D87">
-        <v>0.01510635833018119</v>
+        <v>0.03482760464226271</v>
       </c>
       <c r="E87">
-        <v>-0.1486341874250514</v>
+        <v>0.0397602454359085</v>
       </c>
       <c r="F87">
-        <v>-0.1022360836312444</v>
+        <v>0.1547651671164218</v>
       </c>
       <c r="G87">
-        <v>0.1131013741599146</v>
+        <v>-0.09300135753964223</v>
       </c>
       <c r="H87">
-        <v>0.04401004096415553</v>
+        <v>0.1450189273097109</v>
       </c>
       <c r="I87">
-        <v>-0.09181820339439174</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>0.003869399584716976</v>
+      </c>
+      <c r="J87">
+        <v>0.08639114658705682</v>
+      </c>
+      <c r="K87">
+        <v>-0.05231279229161758</v>
+      </c>
+      <c r="L87">
+        <v>-0.1220368724895766</v>
+      </c>
+      <c r="M87">
+        <v>-0.001828948735230414</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>0.05016696364216894</v>
+        <v>0.05621366567125834</v>
       </c>
       <c r="C88">
-        <v>-0.03853589169801887</v>
+        <v>0.05293507863556325</v>
       </c>
       <c r="D88">
-        <v>0.02336969047927308</v>
+        <v>-0.02732503190006848</v>
       </c>
       <c r="E88">
-        <v>-0.007301121730187764</v>
+        <v>0.01304395076416482</v>
       </c>
       <c r="F88">
-        <v>-0.004662253496085998</v>
+        <v>0.03031701839722811</v>
       </c>
       <c r="G88">
-        <v>0.01480239950047625</v>
+        <v>0.03497550910100029</v>
       </c>
       <c r="H88">
-        <v>0.01604265218389175</v>
+        <v>-0.01948094935382673</v>
       </c>
       <c r="I88">
-        <v>-0.05962268970960356</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>0.04231360260947464</v>
+      </c>
+      <c r="J88">
+        <v>0.01021330496535803</v>
+      </c>
+      <c r="K88">
+        <v>0.01639079966556336</v>
+      </c>
+      <c r="L88">
+        <v>-0.01783980262322238</v>
+      </c>
+      <c r="M88">
+        <v>0.01747292805596145</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>0.178059044913601</v>
+        <v>0.2157002896506788</v>
       </c>
       <c r="C89">
-        <v>0.3197146633279316</v>
+        <v>-0.3564430310707153</v>
       </c>
       <c r="D89">
-        <v>0.0708096963834741</v>
+        <v>0.04892386797378267</v>
       </c>
       <c r="E89">
-        <v>-0.09063456020931031</v>
+        <v>0.08012317580426777</v>
       </c>
       <c r="F89">
-        <v>0.04355676681738312</v>
+        <v>0.0114529127898793</v>
       </c>
       <c r="G89">
-        <v>-0.001590361380367177</v>
+        <v>0.01013307934834232</v>
       </c>
       <c r="H89">
-        <v>0.001837722595076663</v>
+        <v>-0.03630591987015489</v>
       </c>
       <c r="I89">
-        <v>-0.06526429274178645</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>0.0201592494338185</v>
+      </c>
+      <c r="J89">
+        <v>0.02493637470000978</v>
+      </c>
+      <c r="K89">
+        <v>0.0810174342339889</v>
+      </c>
+      <c r="L89">
+        <v>-0.01424761772075135</v>
+      </c>
+      <c r="M89">
+        <v>0.1079418900165945</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>0.126362345101154</v>
+        <v>0.1497298704141954</v>
       </c>
       <c r="C90">
-        <v>0.2798715145604229</v>
+        <v>-0.2698010691919807</v>
       </c>
       <c r="D90">
-        <v>0.007656048121158109</v>
+        <v>-0.008140549804506153</v>
       </c>
       <c r="E90">
-        <v>-0.05596087541697406</v>
+        <v>0.02512183726174629</v>
       </c>
       <c r="F90">
-        <v>0.003169240246526989</v>
+        <v>0.02992057896865982</v>
       </c>
       <c r="G90">
-        <v>0.04208185856558029</v>
+        <v>-0.002301163544960446</v>
       </c>
       <c r="H90">
-        <v>0.02047771489937583</v>
+        <v>0.0178684838391758</v>
       </c>
       <c r="I90">
-        <v>-0.1202900958812619</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>0.05881149578383016</v>
+      </c>
+      <c r="J90">
+        <v>0.0161521863441156</v>
+      </c>
+      <c r="K90">
+        <v>0.0263736196376349</v>
+      </c>
+      <c r="L90">
+        <v>0.007580637792061846</v>
+      </c>
+      <c r="M90">
+        <v>-0.04954453032087326</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>0.08188306804256811</v>
+        <v>0.07805380797959163</v>
       </c>
       <c r="C91">
-        <v>-0.02681991741686221</v>
+        <v>0.04916693444796187</v>
       </c>
       <c r="D91">
-        <v>0.005074331388639201</v>
+        <v>0.010883776698262</v>
       </c>
       <c r="E91">
-        <v>-0.009598960808455414</v>
+        <v>0.006872289620370846</v>
       </c>
       <c r="F91">
-        <v>-0.04399317399176893</v>
+        <v>-0.01856393551014598</v>
       </c>
       <c r="G91">
-        <v>-0.09749874048136097</v>
+        <v>0.0820191046837347</v>
       </c>
       <c r="H91">
-        <v>0.003751834338836778</v>
+        <v>-0.02140581702557412</v>
       </c>
       <c r="I91">
-        <v>0.07522380155565069</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>-0.06037454525672249</v>
+      </c>
+      <c r="J91">
+        <v>0.00813205573835625</v>
+      </c>
+      <c r="K91">
+        <v>-0.0170437542416495</v>
+      </c>
+      <c r="L91">
+        <v>0.03135608822763414</v>
+      </c>
+      <c r="M91">
+        <v>-0.01692032383887611</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>0.1483672900841775</v>
+        <v>0.163917061203375</v>
       </c>
       <c r="C92">
-        <v>0.2996802940737638</v>
+        <v>-0.3016153323833374</v>
       </c>
       <c r="D92">
-        <v>0.04741617731880748</v>
+        <v>0.03513147268858915</v>
       </c>
       <c r="E92">
-        <v>-0.02239454021919174</v>
+        <v>0.0446498949249697</v>
       </c>
       <c r="F92">
-        <v>0.0727385522095981</v>
+        <v>0.0185868498522787</v>
       </c>
       <c r="G92">
-        <v>-0.03816680458058257</v>
+        <v>0.03636643202361192</v>
       </c>
       <c r="H92">
-        <v>0.00527833769010953</v>
+        <v>-0.01947789111737754</v>
       </c>
       <c r="I92">
-        <v>0.01556948643321871</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>0.008542099467909467</v>
+      </c>
+      <c r="J92">
+        <v>-0.005382524655002391</v>
+      </c>
+      <c r="K92">
+        <v>0.04269854063122737</v>
+      </c>
+      <c r="L92">
+        <v>-0.0008561078007121341</v>
+      </c>
+      <c r="M92">
+        <v>0.07496382943212991</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>0.1424477542596743</v>
+        <v>0.1640497391218726</v>
       </c>
       <c r="C93">
-        <v>0.2464097810578711</v>
+        <v>-0.2866659328919928</v>
       </c>
       <c r="D93">
-        <v>0.02360204973441807</v>
+        <v>-0.02657277678012781</v>
       </c>
       <c r="E93">
-        <v>-0.0223151953877841</v>
+        <v>0.01402861251544988</v>
       </c>
       <c r="F93">
-        <v>0.03295959832779418</v>
+        <v>0.01060970808754333</v>
       </c>
       <c r="G93">
-        <v>0.0210145332639188</v>
+        <v>-0.01270604175895795</v>
       </c>
       <c r="H93">
-        <v>0.003303311906929489</v>
+        <v>-0.02584040832057057</v>
       </c>
       <c r="I93">
-        <v>-0.03770085230644538</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>0.03538597511249609</v>
+      </c>
+      <c r="J93">
+        <v>0.005739539409563754</v>
+      </c>
+      <c r="K93">
+        <v>-0.0219880351773572</v>
+      </c>
+      <c r="L93">
+        <v>-0.02095225795011561</v>
+      </c>
+      <c r="M93">
+        <v>-0.037480850065607</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>0.0853341682849139</v>
+        <v>0.1053926406951678</v>
       </c>
       <c r="C94">
-        <v>-0.05949195148641701</v>
+        <v>0.07577364239294258</v>
       </c>
       <c r="D94">
-        <v>0.004786536468748216</v>
+        <v>0.01584898130975873</v>
       </c>
       <c r="E94">
-        <v>0.009307773500497253</v>
+        <v>0.01206784161229789</v>
       </c>
       <c r="F94">
-        <v>-0.07367420523659692</v>
+        <v>-0.0327683196384667</v>
       </c>
       <c r="G94">
-        <v>-0.1434980000425771</v>
+        <v>0.1194971815242976</v>
       </c>
       <c r="H94">
-        <v>-0.01502438761096919</v>
+        <v>-0.03657579423750339</v>
       </c>
       <c r="I94">
-        <v>0.09174541903234067</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>-0.05299451993398274</v>
+      </c>
+      <c r="J94">
+        <v>-0.03853119746878907</v>
+      </c>
+      <c r="K94">
+        <v>-0.01623089019570092</v>
+      </c>
+      <c r="L94">
+        <v>0.05071952635434854</v>
+      </c>
+      <c r="M94">
+        <v>0.0152685426257483</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>0.09694002574797347</v>
+        <v>0.1286619374784037</v>
       </c>
       <c r="C95">
-        <v>-0.06964501226160456</v>
+        <v>0.06890009449946029</v>
       </c>
       <c r="D95">
-        <v>0.06895147730988478</v>
+        <v>0.02046131755837248</v>
       </c>
       <c r="E95">
-        <v>-0.02412698999705618</v>
+        <v>0.06371656081885221</v>
       </c>
       <c r="F95">
-        <v>0.05016169289646793</v>
+        <v>0.07843224357684198</v>
       </c>
       <c r="G95">
-        <v>-0.01832043763169026</v>
+        <v>-0.1829103025047086</v>
       </c>
       <c r="H95">
-        <v>-0.006509582207163672</v>
+        <v>-0.1143304271409</v>
       </c>
       <c r="I95">
-        <v>-0.2387982601375786</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>0.1865249404981909</v>
+      </c>
+      <c r="J95">
+        <v>0.03940959470911216</v>
+      </c>
+      <c r="K95">
+        <v>-0.06146217608258148</v>
+      </c>
+      <c r="L95">
+        <v>-0.01615470258099316</v>
+      </c>
+      <c r="M95">
+        <v>0.4504124804431868</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3490,97 +4642,145 @@
       <c r="I96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>0.2702100828808422</v>
+        <v>0.1625058414303182</v>
       </c>
       <c r="C97">
-        <v>-0.02468063201969562</v>
+        <v>-0.004330195560079217</v>
       </c>
       <c r="D97">
-        <v>-0.8719622581899438</v>
+        <v>0.09120186491882948</v>
       </c>
       <c r="E97">
-        <v>0.1609885487884955</v>
+        <v>-0.9347664314353543</v>
       </c>
       <c r="F97">
-        <v>0.06469304333509746</v>
+        <v>0.02268004552588917</v>
       </c>
       <c r="G97">
-        <v>0.1101712559042893</v>
+        <v>-0.1106265332027346</v>
       </c>
       <c r="H97">
-        <v>-0.03470040049463517</v>
+        <v>-0.0338228409627073</v>
       </c>
       <c r="I97">
-        <v>-0.04073269088218606</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>0.01268377281286481</v>
+      </c>
+      <c r="J97">
+        <v>0.06744241926866108</v>
+      </c>
+      <c r="K97">
+        <v>0.04439491440676192</v>
+      </c>
+      <c r="L97">
+        <v>0.01824490148985953</v>
+      </c>
+      <c r="M97">
+        <v>0.03903588483115451</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>0.2790887751074548</v>
+        <v>0.2639608528094586</v>
       </c>
       <c r="C98">
-        <v>-0.1134635287476914</v>
+        <v>0.117413674196933</v>
       </c>
       <c r="D98">
-        <v>0.1817185607577978</v>
+        <v>-0.01383049834842823</v>
       </c>
       <c r="E98">
-        <v>0.2965609154114976</v>
+        <v>0.02302058947570524</v>
       </c>
       <c r="F98">
-        <v>0.4565296846622602</v>
+        <v>-0.4214380853441382</v>
       </c>
       <c r="G98">
-        <v>0.2713546497405552</v>
+        <v>-0.2450642906873756</v>
       </c>
       <c r="H98">
-        <v>0.3211644223506047</v>
+        <v>0.1580911598335487</v>
       </c>
       <c r="I98">
-        <v>0.206742559721228</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>-0.2180258969966214</v>
+      </c>
+      <c r="J98">
+        <v>-0.08180165871685274</v>
+      </c>
+      <c r="K98">
+        <v>0.03534841195742219</v>
+      </c>
+      <c r="L98">
+        <v>-0.6209025177235562</v>
+      </c>
+      <c r="M98">
+        <v>0.05962187418114989</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>0.05221623708350606</v>
+        <v>0.06655289354708377</v>
       </c>
       <c r="C99">
-        <v>-0.05410720465482582</v>
+        <v>0.05373109458927883</v>
       </c>
       <c r="D99">
-        <v>0.007123636750979595</v>
+        <v>0.01557545850535402</v>
       </c>
       <c r="E99">
-        <v>0.02586250307772081</v>
+        <v>0.0151135133637634</v>
       </c>
       <c r="F99">
-        <v>-0.02386742089601747</v>
+        <v>-0.005257112648225977</v>
       </c>
       <c r="G99">
-        <v>0.1174708061427177</v>
+        <v>0.01286921120026057</v>
       </c>
       <c r="H99">
-        <v>0.1964591657056001</v>
+        <v>0.02567400713056664</v>
       </c>
       <c r="I99">
-        <v>-0.01097229906605352</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>-0.1252361062652051</v>
+      </c>
+      <c r="J99">
+        <v>0.1049904421660013</v>
+      </c>
+      <c r="K99">
+        <v>0.01227940713024472</v>
+      </c>
+      <c r="L99">
+        <v>-0.01593746393897794</v>
+      </c>
+      <c r="M99">
+        <v>0.2190307267666279</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3606,39 +4806,63 @@
       <c r="I100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>0.05215013008595579</v>
+        <v>0.044716039224151</v>
       </c>
       <c r="C101">
-        <v>-0.02049666264776939</v>
+        <v>0.02320725171001987</v>
       </c>
       <c r="D101">
-        <v>0.0109305633332193</v>
+        <v>0.002845744694556856</v>
       </c>
       <c r="E101">
-        <v>-0.01704678521708094</v>
+        <v>0.02117115824175633</v>
       </c>
       <c r="F101">
-        <v>0.005814139292762182</v>
+        <v>0.04582885994089243</v>
       </c>
       <c r="G101">
-        <v>-0.0184347857209</v>
+        <v>0.03961414268263834</v>
       </c>
       <c r="H101">
-        <v>-0.02689825530833154</v>
+        <v>-0.05039185385962634</v>
       </c>
       <c r="I101">
-        <v>-0.01023002770439115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>0.01399497948264605</v>
+      </c>
+      <c r="J101">
+        <v>-0.01596630471933951</v>
+      </c>
+      <c r="K101">
+        <v>-0.03940308535108052</v>
+      </c>
+      <c r="L101">
+        <v>-0.0314103905160695</v>
+      </c>
+      <c r="M101">
+        <v>-0.02971418000298647</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3664,10 +4888,22 @@
       <c r="I102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3693,10 +4929,22 @@
       <c r="I103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3720,6 +4968,18 @@
         <v>0</v>
       </c>
       <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
